--- a/working_dataframe.xlsx
+++ b/working_dataframe.xlsx
@@ -1014,10 +1014,8 @@
       <c r="BR2" t="n">
         <v>9.344166666666666</v>
       </c>
-      <c r="BS2" t="inlineStr">
-        <is>
-          <t>594,749,285,413</t>
-        </is>
+      <c r="BS2" t="n">
+        <v>594749285413</v>
       </c>
       <c r="BT2" t="n">
         <v>14981</v>
@@ -1238,10 +1236,8 @@
       <c r="BR3" t="n">
         <v>3.773333333333333</v>
       </c>
-      <c r="BS3" t="inlineStr">
-        <is>
-          <t>10,553,337,673</t>
-        </is>
+      <c r="BS3" t="n">
+        <v>10553337673</v>
       </c>
       <c r="BT3" t="n">
         <v>3775</v>
@@ -1462,10 +1458,8 @@
       <c r="BR4" t="n">
         <v>12.84833333333333</v>
       </c>
-      <c r="BS4" t="inlineStr">
-        <is>
-          <t>1,349,034,029,453</t>
-        </is>
+      <c r="BS4" t="n">
+        <v>1349034029453</v>
       </c>
       <c r="BT4" t="n">
         <v>60656</v>
@@ -1686,10 +1680,8 @@
       <c r="BR5" t="n">
         <v>16.21833333333333</v>
       </c>
-      <c r="BS5" t="inlineStr">
-        <is>
-          <t>382,065,930,308</t>
-        </is>
+      <c r="BS5" t="n">
+        <v>382065930308</v>
       </c>
       <c r="BT5" t="n">
         <v>46484</v>
@@ -1910,10 +1902,8 @@
       <c r="BR6" t="n">
         <v>16.38833333333333</v>
       </c>
-      <c r="BS6" t="inlineStr">
-        <is>
-          <t>455,039,563,133</t>
-        </is>
+      <c r="BS6" t="n">
+        <v>455039563133</v>
       </c>
       <c r="BT6" t="n">
         <v>42830</v>
@@ -2106,10 +2096,8 @@
       <c r="BR7" t="n">
         <v>11.28833333333333</v>
       </c>
-      <c r="BS7" t="inlineStr">
-        <is>
-          <t>1,778,567,600</t>
-        </is>
+      <c r="BS7" t="n">
+        <v>1778567600</v>
       </c>
       <c r="BT7" t="n">
         <v>5561</v>
@@ -2330,10 +2318,8 @@
       <c r="BR8" t="n">
         <v>6.454166666666667</v>
       </c>
-      <c r="BS8" t="inlineStr">
-        <is>
-          <t>1,802,214,373,741</t>
-        </is>
+      <c r="BS8" t="n">
+        <v>1802214373741</v>
       </c>
       <c r="BT8" t="n">
         <v>9431</v>
@@ -2554,10 +2540,8 @@
       <c r="BR9" t="n">
         <v>12.30666666666667</v>
       </c>
-      <c r="BS9" t="inlineStr">
-        <is>
-          <t>243,999,477,738</t>
-        </is>
+      <c r="BS9" t="n">
+        <v>243999477738</v>
       </c>
       <c r="BT9" t="n">
         <v>14729</v>
@@ -2778,10 +2762,8 @@
       <c r="BR10" t="n">
         <v>5.866666666666666</v>
       </c>
-      <c r="BS10" t="inlineStr">
-        <is>
-          <t>291,519,591,533</t>
-        </is>
+      <c r="BS10" t="n">
+        <v>291519591533</v>
       </c>
       <c r="BT10" t="n">
         <v>6552</v>
@@ -3002,10 +2984,8 @@
       <c r="BR11" t="n">
         <v>19.14</v>
       </c>
-      <c r="BS11" t="inlineStr">
-        <is>
-          <t>49,425,513,611</t>
-        </is>
+      <c r="BS11" t="n">
+        <v>49425513611</v>
       </c>
       <c r="BT11" t="n">
         <v>12351</v>
@@ -3226,10 +3206,8 @@
       <c r="BR12" t="n">
         <v>4.132499999999999</v>
       </c>
-      <c r="BS12" t="inlineStr">
-        <is>
-          <t>19,676,167,240</t>
-        </is>
+      <c r="BS12" t="n">
+        <v>19676167240</v>
       </c>
       <c r="BT12" t="n">
         <v>24718</v>
@@ -3450,10 +3428,8 @@
       <c r="BR13" t="n">
         <v>10.11833333333333</v>
       </c>
-      <c r="BS13" t="inlineStr">
-        <is>
-          <t>301,298,464,861</t>
-        </is>
+      <c r="BS13" t="n">
+        <v>301298464861</v>
       </c>
       <c r="BT13" t="n">
         <v>55972</v>
@@ -3674,10 +3650,8 @@
       <c r="BR14" t="n">
         <v>8.115833333333333</v>
       </c>
-      <c r="BS14" t="inlineStr">
-        <is>
-          <t>99,290,381,000</t>
-        </is>
+      <c r="BS14" t="n">
+        <v>99290381000</v>
       </c>
       <c r="BT14" t="n">
         <v>6832</v>
@@ -3898,10 +3872,8 @@
       <c r="BR15" t="n">
         <v>17.115</v>
       </c>
-      <c r="BS15" t="inlineStr">
-        <is>
-          <t>22,566,956,982</t>
-        </is>
+      <c r="BS15" t="n">
+        <v>22566956982</v>
       </c>
       <c r="BT15" t="n">
         <v>18149</v>
@@ -4122,10 +4094,8 @@
       <c r="BR16" t="n">
         <v>13.4325</v>
       </c>
-      <c r="BS16" t="inlineStr">
-        <is>
-          <t>232,464,833,066</t>
-        </is>
+      <c r="BS16" t="n">
+        <v>232464833066</v>
       </c>
       <c r="BT16" t="n">
         <v>44862</v>
@@ -4346,10 +4316,8 @@
       <c r="BR17" t="n">
         <v>7.056666666666666</v>
       </c>
-      <c r="BS17" t="inlineStr">
-        <is>
-          <t>13,993,546,732</t>
-        </is>
+      <c r="BS17" t="n">
+        <v>13993546732</v>
       </c>
       <c r="BT17" t="n">
         <v>4046</v>
@@ -4570,10 +4538,8 @@
       <c r="BR18" t="n">
         <v>12.52833333333333</v>
       </c>
-      <c r="BS18" t="inlineStr">
-        <is>
-          <t>3,375,611,100,742</t>
-        </is>
+      <c r="BS18" t="n">
+        <v>3375611100742</v>
       </c>
       <c r="BT18" t="n">
         <v>43201</v>
@@ -4794,10 +4760,8 @@
       <c r="BR19" t="n">
         <v>4.671666666666667</v>
       </c>
-      <c r="BS19" t="inlineStr">
-        <is>
-          <t>195,541,761,243</t>
-        </is>
+      <c r="BS19" t="n">
+        <v>195541761243</v>
       </c>
       <c r="BT19" t="n">
         <v>18927</v>
@@ -5018,10 +4982,8 @@
       <c r="BR20" t="n">
         <v>3.7375</v>
       </c>
-      <c r="BS20" t="inlineStr">
-        <is>
-          <t>63,767,597,194</t>
-        </is>
+      <c r="BS20" t="n">
+        <v>63767597194</v>
       </c>
       <c r="BT20" t="n">
         <v>4472</v>
@@ -5242,10 +5204,8 @@
       <c r="BR21" t="n">
         <v>21.43916666666667</v>
       </c>
-      <c r="BS21" t="inlineStr">
-        <is>
-          <t>122,879,042,002</t>
-        </is>
+      <c r="BS21" t="n">
+        <v>122879042002</v>
       </c>
       <c r="BT21" t="n">
         <v>13087</v>
@@ -5466,10 +5426,8 @@
       <c r="BR22" t="n">
         <v>11.72083333333333</v>
       </c>
-      <c r="BS22" t="inlineStr">
-        <is>
-          <t>16,942,247,374</t>
-        </is>
+      <c r="BS22" t="n">
+        <v>16942247374</v>
       </c>
       <c r="BT22" t="n">
         <v>54909</v>
@@ -5690,10 +5648,8 @@
       <c r="BR23" t="n">
         <v>5.4925</v>
       </c>
-      <c r="BS23" t="inlineStr">
-        <is>
-          <t>299,093,839,690</t>
-        </is>
+      <c r="BS23" t="n">
+        <v>299093839690</v>
       </c>
       <c r="BT23" t="n">
         <v>39793</v>
@@ -5914,10 +5870,8 @@
       <c r="BR24" t="n">
         <v>6.537500000000001</v>
       </c>
-      <c r="BS24" t="inlineStr">
-        <is>
-          <t>1,832,868,490,534</t>
-        </is>
+      <c r="BS24" t="n">
+        <v>1832868490534</v>
       </c>
       <c r="BT24" t="n">
         <v>31537</v>
@@ -6138,10 +6092,8 @@
       <c r="BR25" t="n">
         <v>17.17</v>
       </c>
-      <c r="BS25" t="inlineStr">
-        <is>
-          <t>4,394,977,752,878</t>
-        </is>
+      <c r="BS25" t="n">
+        <v>4394977752878</v>
       </c>
       <c r="BT25" t="n">
         <v>36510</v>
@@ -6362,10 +6314,8 @@
       <c r="BR26" t="n">
         <v>19.835</v>
       </c>
-      <c r="BS26" t="inlineStr">
-        <is>
-          <t>184,388,432,149</t>
-        </is>
+      <c r="BS26" t="n">
+        <v>184388432149</v>
       </c>
       <c r="BT26" t="n">
         <v>11784</v>
@@ -6586,10 +6536,8 @@
       <c r="BR27" t="n">
         <v>20.95583333333333</v>
       </c>
-      <c r="BS27" t="inlineStr">
-        <is>
-          <t>26,972,863,394</t>
-        </is>
+      <c r="BS27" t="n">
+        <v>26972863394</v>
       </c>
       <c r="BT27" t="n">
         <v>14382</v>
@@ -6810,10 +6758,8 @@
       <c r="BR28" t="n">
         <v>32.12333333333333</v>
       </c>
-      <c r="BS28" t="inlineStr">
-        <is>
-          <t>41,508,609,233</t>
-        </is>
+      <c r="BS28" t="n">
+        <v>41508609233</v>
       </c>
       <c r="BT28" t="n">
         <v>15073</v>
@@ -7032,10 +6978,8 @@
       <c r="BR29" t="n">
         <v>11.2</v>
       </c>
-      <c r="BS29" t="inlineStr">
-        <is>
-          <t>57,784,495,265</t>
-        </is>
+      <c r="BS29" t="n">
+        <v>57784495265</v>
       </c>
       <c r="BT29" t="n">
         <v>107456</v>
@@ -7252,10 +7196,8 @@
       <c r="BR30" t="n">
         <v>6.5225</v>
       </c>
-      <c r="BS30" t="inlineStr">
-        <is>
-          <t>10,574,026,838</t>
-        </is>
+      <c r="BS30" t="n">
+        <v>10574026838</v>
       </c>
       <c r="BT30" t="n">
         <v>25750</v>
@@ -7476,10 +7418,8 @@
       <c r="BR31" t="n">
         <v>8.330833333333333</v>
       </c>
-      <c r="BS31" t="inlineStr">
-        <is>
-          <t>11,692,287,066</t>
-        </is>
+      <c r="BS31" t="n">
+        <v>11692287066</v>
       </c>
       <c r="BT31" t="n">
         <v>10125</v>
@@ -7700,10 +7640,8 @@
       <c r="BR32" t="n">
         <v>5.547499999999999</v>
       </c>
-      <c r="BS32" t="inlineStr">
-        <is>
-          <t>1,169,622,672,463</t>
-        </is>
+      <c r="BS32" t="n">
+        <v>1169622672463</v>
       </c>
       <c r="BT32" t="n">
         <v>10228</v>
@@ -7924,10 +7862,8 @@
       <c r="BR33" t="n">
         <v>10.5775</v>
       </c>
-      <c r="BS33" t="inlineStr">
-        <is>
-          <t>757,999,453,314</t>
-        </is>
+      <c r="BS33" t="n">
+        <v>757999453314</v>
       </c>
       <c r="BT33" t="n">
         <v>47206</v>
@@ -8148,10 +8084,8 @@
       <c r="BR34" t="n">
         <v>5.822500000000001</v>
       </c>
-      <c r="BS34" t="inlineStr">
-        <is>
-          <t>12,611,087,031</t>
-        </is>
+      <c r="BS34" t="n">
+        <v>12611087031</v>
       </c>
       <c r="BT34" t="n">
         <v>2303</v>
@@ -8372,10 +8306,8 @@
       <c r="BR35" t="n">
         <v>11.36916666666667</v>
       </c>
-      <c r="BS35" t="inlineStr">
-        <is>
-          <t>386,663,139,403</t>
-        </is>
+      <c r="BS35" t="n">
+        <v>386663139403</v>
       </c>
       <c r="BT35" t="n">
         <v>79187</v>
@@ -8596,10 +8528,8 @@
       <c r="BR36" t="n">
         <v>3.741666666666667</v>
       </c>
-      <c r="BS36" t="inlineStr">
-        <is>
-          <t>54,315,722,500</t>
-        </is>
+      <c r="BS36" t="n">
+        <v>54315722500</v>
       </c>
       <c r="BT36" t="n">
         <v>15158</v>
@@ -8820,10 +8750,8 @@
       <c r="BR37" t="n">
         <v>13.91583333333333</v>
       </c>
-      <c r="BS37" t="inlineStr">
-        <is>
-          <t>477,355,617,456</t>
-        </is>
+      <c r="BS37" t="n">
+        <v>477355617456</v>
       </c>
       <c r="BT37" t="n">
         <v>13228</v>
@@ -9044,10 +8972,8 @@
       <c r="BR38" t="n">
         <v>1.57</v>
       </c>
-      <c r="BS38" t="inlineStr">
-        <is>
-          <t>164,641,483,516</t>
-        </is>
+      <c r="BS38" t="n">
+        <v>164641483516</v>
       </c>
       <c r="BT38" t="n">
         <v>69937</v>
@@ -9268,10 +9194,8 @@
       <c r="BR39" t="n">
         <v>11.12916666666666</v>
       </c>
-      <c r="BS39" t="inlineStr">
-        <is>
-          <t>177,911,101,680</t>
-        </is>
+      <c r="BS39" t="n">
+        <v>177911101680</v>
       </c>
       <c r="BT39" t="n">
         <v>9431</v>
@@ -9492,10 +9416,8 @@
       <c r="BR40" t="n">
         <v>17.16416666666667</v>
       </c>
-      <c r="BS40" t="inlineStr">
-        <is>
-          <t>37,160,332,465</t>
-        </is>
+      <c r="BS40" t="n">
+        <v>37160332465</v>
       </c>
       <c r="BT40" t="n">
         <v>5492</v>
@@ -9682,10 +9604,8 @@
       <c r="BR41" t="n">
         <v>6.770833333333333</v>
       </c>
-      <c r="BS41" t="inlineStr">
-        <is>
-          <t>1,375,604,279</t>
-        </is>
+      <c r="BS41" t="n">
+        <v>1375604279</v>
       </c>
       <c r="BT41" t="n">
         <v>16005</v>
@@ -9906,10 +9826,8 @@
       <c r="BR42" t="n">
         <v>9.1075</v>
       </c>
-      <c r="BS42" t="inlineStr">
-        <is>
-          <t>304,097,759,674</t>
-        </is>
+      <c r="BS42" t="n">
+        <v>304097759674</v>
       </c>
       <c r="BT42" t="n">
         <v>81766</v>
@@ -10130,10 +10048,8 @@
       <c r="BR43" t="n">
         <v>22.0675</v>
       </c>
-      <c r="BS43" t="inlineStr">
-        <is>
-          <t>43,072,415,017</t>
-        </is>
+      <c r="BS43" t="n">
+        <v>43072415017</v>
       </c>
       <c r="BT43" t="n">
         <v>22036</v>
@@ -10354,10 +10270,8 @@
       <c r="BR44" t="n">
         <v>1.083333333333333</v>
       </c>
-      <c r="BS44" t="inlineStr">
-        <is>
-          <t>317,741,039,198</t>
-        </is>
+      <c r="BS44" t="n">
+        <v>317741039198</v>
       </c>
       <c r="BT44" t="n">
         <v>6403</v>
@@ -10578,10 +10492,8 @@
       <c r="BR45" t="n">
         <v>8.115</v>
       </c>
-      <c r="BS45" t="inlineStr">
-        <is>
-          <t>1,197,789,902,774</t>
-        </is>
+      <c r="BS45" t="n">
+        <v>1197789902774</v>
       </c>
       <c r="BT45" t="n">
         <v>27108</v>
@@ -10802,10 +10714,8 @@
       <c r="BR46" t="n">
         <v>12.44166666666667</v>
       </c>
-      <c r="BS46" t="inlineStr">
-        <is>
-          <t>497,918,109,302</t>
-        </is>
+      <c r="BS46" t="n">
+        <v>497918109302</v>
       </c>
       <c r="BT46" t="n">
         <v>54629</v>
@@ -11026,10 +10936,8 @@
       <c r="BR47" t="n">
         <v>13.72166666666667</v>
       </c>
-      <c r="BS47" t="inlineStr">
-        <is>
-          <t>679,289,166,858</t>
-        </is>
+      <c r="BS47" t="n">
+        <v>679289166858</v>
       </c>
       <c r="BT47" t="n">
         <v>86068</v>
@@ -11250,10 +11158,8 @@
       <c r="BR48" t="n">
         <v>6.7625</v>
       </c>
-      <c r="BS48" t="inlineStr">
-        <is>
-          <t>401,399,422,443</t>
-        </is>
+      <c r="BS48" t="n">
+        <v>401399422443</v>
       </c>
       <c r="BT48" t="n">
         <v>6552</v>
@@ -11474,10 +11380,8 @@
       <c r="BR49" t="n">
         <v>2.3725</v>
       </c>
-      <c r="BS49" t="inlineStr">
-        <is>
-          <t>859,796,872,794</t>
-        </is>
+      <c r="BS49" t="n">
+        <v>859796872794</v>
       </c>
       <c r="BT49" t="n">
         <v>11961</v>
@@ -11698,10 +11602,8 @@
       <c r="BR50" t="n">
         <v>20.39333333333333</v>
       </c>
-      <c r="BS50" t="inlineStr">
-        <is>
-          <t>91,030,959,455</t>
-        </is>
+      <c r="BS50" t="n">
+        <v>91030959455</v>
       </c>
       <c r="BT50" t="n">
         <v>2256</v>
@@ -11922,10 +11824,8 @@
       <c r="BR51" t="n">
         <v>7.228333333333333</v>
       </c>
-      <c r="BS51" t="inlineStr">
-        <is>
-          <t>2,885,570,309,161</t>
-        </is>
+      <c r="BS51" t="n">
+        <v>2885570309161</v>
       </c>
       <c r="BT51" t="n">
         <v>47240</v>
@@ -12146,10 +12046,8 @@
       <c r="BR52" t="n">
         <v>14.6175</v>
       </c>
-      <c r="BS52" t="inlineStr">
-        <is>
-          <t>18,120,714,000,000</t>
-        </is>
+      <c r="BS52" t="n">
+        <v>18120714000000</v>
       </c>
       <c r="BT52" t="n">
         <v>60387</v>
@@ -12370,10 +12268,8 @@
       <c r="BR53" t="n">
         <v>22.50166666666667</v>
       </c>
-      <c r="BS53" t="inlineStr">
-        <is>
-          <t>53,274,304,222</t>
-        </is>
+      <c r="BS53" t="n">
+        <v>53274304222</v>
       </c>
       <c r="BT53" t="n">
         <v>16696</v>
@@ -12594,10 +12490,8 @@
       <c r="BR54" t="n">
         <v>9.279166666666667</v>
       </c>
-      <c r="BS54" t="inlineStr">
-        <is>
-          <t>526,319,673,732</t>
-        </is>
+      <c r="BS54" t="n">
+        <v>526319673732</v>
       </c>
       <c r="BT54" t="n">
         <v>13400</v>
@@ -12818,10 +12712,8 @@
       <c r="BR55" t="n">
         <v>3.084166666666667</v>
       </c>
-      <c r="BS55" t="inlineStr">
-        <is>
-          <t>11,609,512,940</t>
-        </is>
+      <c r="BS55" t="n">
+        <v>11609512940</v>
       </c>
       <c r="BT55" t="n">
         <v>4142</v>
@@ -13042,10 +12934,8 @@
       <c r="BR56" t="n">
         <v>12.4225</v>
       </c>
-      <c r="BS56" t="inlineStr">
-        <is>
-          <t>1,464,955,475,994</t>
-        </is>
+      <c r="BS56" t="n">
+        <v>1464955475994</v>
       </c>
       <c r="BT56" t="n">
         <v>66809</v>
@@ -13266,10 +13156,8 @@
       <c r="BR57" t="n">
         <v>17.485</v>
       </c>
-      <c r="BS57" t="inlineStr">
-        <is>
-          <t>441,885,415,806</t>
-        </is>
+      <c r="BS57" t="n">
+        <v>441885415806</v>
       </c>
       <c r="BT57" t="n">
         <v>54278</v>
@@ -13490,10 +13378,8 @@
       <c r="BR58" t="n">
         <v>0.5433333333333333</v>
       </c>
-      <c r="BS58" t="inlineStr">
-        <is>
-          <t>33,387,712,766</t>
-        </is>
+      <c r="BS58" t="n">
+        <v>33387712766</v>
       </c>
       <c r="BT58" t="n">
         <v>27503</v>
@@ -13714,10 +13600,8 @@
       <c r="BR59" t="n">
         <v>16.82083333333333</v>
       </c>
-      <c r="BS59" t="inlineStr">
-        <is>
-          <t>530,770,977,634</t>
-        </is>
+      <c r="BS59" t="n">
+        <v>530770977634</v>
       </c>
       <c r="BT59" t="n">
         <v>50173</v>
@@ -13910,10 +13794,8 @@
       <c r="BR60" t="n">
         <v>7.579166666666667</v>
       </c>
-      <c r="BS60" t="inlineStr">
-        <is>
-          <t>1,703,951,050</t>
-        </is>
+      <c r="BS60" t="n">
+        <v>1703951050</v>
       </c>
       <c r="BT60" t="n">
         <v>5448</v>
@@ -14134,10 +14016,8 @@
       <c r="BR61" t="n">
         <v>9.125</v>
       </c>
-      <c r="BS61" t="inlineStr">
-        <is>
-          <t>18,558,343,508</t>
-        </is>
+      <c r="BS61" t="n">
+        <v>18558343508</v>
       </c>
       <c r="BT61" t="n">
         <v>5079</v>
@@ -14358,10 +14238,8 @@
       <c r="BR62" t="n">
         <v>6.094166666666666</v>
       </c>
-      <c r="BS62" t="inlineStr">
-        <is>
-          <t>2,455,993,625,159</t>
-        </is>
+      <c r="BS62" t="n">
+        <v>2455993625159</v>
       </c>
       <c r="BT62" t="n">
         <v>12975</v>
@@ -14582,10 +14460,8 @@
       <c r="BR63" t="n">
         <v>11.6475</v>
       </c>
-      <c r="BS63" t="inlineStr">
-        <is>
-          <t>56,731,990,232</t>
-        </is>
+      <c r="BS63" t="n">
+        <v>56731990232</v>
       </c>
       <c r="BT63" t="n">
         <v>8241</v>
@@ -14806,10 +14682,8 @@
       <c r="BR64" t="n">
         <v>11.4475</v>
       </c>
-      <c r="BS64" t="inlineStr">
-        <is>
-          <t>260,584,090,571</t>
-        </is>
+      <c r="BS64" t="n">
+        <v>260584090571</v>
       </c>
       <c r="BT64" t="n">
         <v>15883</v>
@@ -15030,10 +14904,8 @@
       <c r="BR65" t="n">
         <v>5.551666666666667</v>
       </c>
-      <c r="BS65" t="inlineStr">
-        <is>
-          <t>378,195,716,714</t>
-        </is>
+      <c r="BS65" t="n">
+        <v>378195716714</v>
       </c>
       <c r="BT65" t="n">
         <v>8591</v>
@@ -15254,10 +15126,8 @@
       <c r="BR66" t="n">
         <v>5.904166666666666</v>
       </c>
-      <c r="BS66" t="inlineStr">
-        <is>
-          <t>50,577,769,838</t>
-        </is>
+      <c r="BS66" t="n">
+        <v>50577769838</v>
       </c>
       <c r="BT66" t="n">
         <v>11485</v>
@@ -15478,10 +15348,8 @@
       <c r="BR67" t="n">
         <v>18.50333333333333</v>
       </c>
-      <c r="BS67" t="inlineStr">
-        <is>
-          <t>57,629,518,806</t>
-        </is>
+      <c r="BS67" t="n">
+        <v>57629518806</v>
       </c>
       <c r="BT67" t="n">
         <v>14299</v>
@@ -15702,10 +15570,8 @@
       <c r="BR68" t="n">
         <v>4.758333333333334</v>
       </c>
-      <c r="BS68" t="inlineStr">
-        <is>
-          <t>23,359,294,149</t>
-        </is>
+      <c r="BS68" t="n">
+        <v>23359294149</v>
       </c>
       <c r="BT68" t="n">
         <v>29024</v>
@@ -15926,10 +15792,8 @@
       <c r="BR69" t="n">
         <v>11.4775</v>
       </c>
-      <c r="BS69" t="inlineStr">
-        <is>
-          <t>352,993,633,221</t>
-        </is>
+      <c r="BS69" t="n">
+        <v>352993633221</v>
       </c>
       <c r="BT69" t="n">
         <v>66114</v>
@@ -16150,10 +16014,8 @@
       <c r="BR70" t="n">
         <v>5.501666666666666</v>
       </c>
-      <c r="BS70" t="inlineStr">
-        <is>
-          <t>101,726,331,000</t>
-        </is>
+      <c r="BS70" t="n">
+        <v>101726331000</v>
       </c>
       <c r="BT70" t="n">
         <v>7116</v>
@@ -16374,10 +16236,8 @@
       <c r="BR71" t="n">
         <v>8.486666666666666</v>
       </c>
-      <c r="BS71" t="inlineStr">
-        <is>
-          <t>22,585,841,200</t>
-        </is>
+      <c r="BS71" t="n">
+        <v>22585841200</v>
       </c>
       <c r="BT71" t="n">
         <v>3965</v>
@@ -16598,10 +16458,8 @@
       <c r="BR72" t="n">
         <v>21.57583333333334</v>
       </c>
-      <c r="BS72" t="inlineStr">
-        <is>
-          <t>26,224,622,451</t>
-        </is>
+      <c r="BS72" t="n">
+        <v>26224622451</v>
       </c>
       <c r="BT72" t="n">
         <v>21117</v>
@@ -16822,10 +16680,8 @@
       <c r="BR73" t="n">
         <v>14.76333333333333</v>
       </c>
-      <c r="BS73" t="inlineStr">
-        <is>
-          <t>272,609,288,690</t>
-        </is>
+      <c r="BS73" t="n">
+        <v>272609288690</v>
       </c>
       <c r="BT73" t="n">
         <v>52832</v>
@@ -17046,10 +16902,8 @@
       <c r="BR74" t="n">
         <v>14.96333333333333</v>
       </c>
-      <c r="BS74" t="inlineStr">
-        <is>
-          <t>2,852,165,760,630</t>
-        </is>
+      <c r="BS74" t="n">
+        <v>2852165760630</v>
       </c>
       <c r="BT74" t="n">
         <v>47318</v>
@@ -17270,10 +17124,8 @@
       <c r="BR75" t="n">
         <v>6.2075</v>
       </c>
-      <c r="BS75" t="inlineStr">
-        <is>
-          <t>16,509,305,828</t>
-        </is>
+      <c r="BS75" t="n">
+        <v>16509305828</v>
       </c>
       <c r="BT75" t="n">
         <v>4757</v>
@@ -17494,10 +17346,8 @@
       <c r="BR76" t="n">
         <v>12.75333333333333</v>
       </c>
-      <c r="BS76" t="inlineStr">
-        <is>
-          <t>3,890,606,893,347</t>
-        </is>
+      <c r="BS76" t="n">
+        <v>3890606893347</v>
       </c>
       <c r="BT76" t="n">
         <v>50167</v>
@@ -17718,10 +17568,8 @@
       <c r="BR77" t="n">
         <v>4.985</v>
       </c>
-      <c r="BS77" t="inlineStr">
-        <is>
-          <t>237,029,579,261</t>
-        </is>
+      <c r="BS77" t="n">
+        <v>237029579261</v>
       </c>
       <c r="BT77" t="n">
         <v>22834</v>
@@ -17942,10 +17790,8 @@
       <c r="BR78" t="n">
         <v>3.823333333333334</v>
       </c>
-      <c r="BS78" t="inlineStr">
-        <is>
-          <t>58,722,323,918</t>
-        </is>
+      <c r="BS78" t="n">
+        <v>58722323918</v>
       </c>
       <c r="BT78" t="n">
         <v>4210</v>
@@ -18166,10 +18012,8 @@
       <c r="BR79" t="n">
         <v>20.35916666666667</v>
       </c>
-      <c r="BS79" t="inlineStr">
-        <is>
-          <t>140,118,140,455</t>
-        </is>
+      <c r="BS79" t="n">
+        <v>140118140455</v>
       </c>
       <c r="BT79" t="n">
         <v>14886</v>
@@ -18390,10 +18234,8 @@
       <c r="BR80" t="n">
         <v>16.49666666666667</v>
       </c>
-      <c r="BS80" t="inlineStr">
-        <is>
-          <t>17,304,033,021</t>
-        </is>
+      <c r="BS80" t="n">
+        <v>17304033021</v>
       </c>
       <c r="BT80" t="n">
         <v>56833</v>
@@ -18614,10 +18456,8 @@
       <c r="BR81" t="n">
         <v>9.973333333333334</v>
       </c>
-      <c r="BS81" t="inlineStr">
-        <is>
-          <t>258,099,014,042</t>
-        </is>
+      <c r="BS81" t="n">
+        <v>258099014042</v>
       </c>
       <c r="BT81" t="n">
         <v>59634</v>
@@ -18838,10 +18678,8 @@
       <c r="BR82" t="n">
         <v>5.938333333333333</v>
       </c>
-      <c r="BS82" t="inlineStr">
-        <is>
-          <t>308,416,982,140</t>
-        </is>
+      <c r="BS82" t="n">
+        <v>308416982140</v>
       </c>
       <c r="BT82" t="n">
         <v>41869</v>
@@ -19062,10 +18900,8 @@
       <c r="BR83" t="n">
         <v>6.844166666666666</v>
       </c>
-      <c r="BS83" t="inlineStr">
-        <is>
-          <t>2,151,732,868,243</t>
-        </is>
+      <c r="BS83" t="n">
+        <v>2151732868243</v>
       </c>
       <c r="BT83" t="n">
         <v>37035</v>
@@ -19286,10 +19122,8 @@
       <c r="BR84" t="n">
         <v>18.18416666666667</v>
       </c>
-      <c r="BS84" t="inlineStr">
-        <is>
-          <t>4,850,413,536,038</t>
-        </is>
+      <c r="BS84" t="n">
+        <v>4850413536038</v>
       </c>
       <c r="BT84" t="n">
         <v>40328</v>
@@ -19510,10 +19344,8 @@
       <c r="BR85" t="n">
         <v>21.42416666666666</v>
       </c>
-      <c r="BS85" t="inlineStr">
-        <is>
-          <t>221,415,572,820</t>
-        </is>
+      <c r="BS85" t="n">
+        <v>221415572820</v>
       </c>
       <c r="BT85" t="n">
         <v>14351</v>
@@ -19734,10 +19566,8 @@
       <c r="BR86" t="n">
         <v>1.321666666666667</v>
       </c>
-      <c r="BS86" t="inlineStr">
-        <is>
-          <t>162,631,412,509</t>
-        </is>
+      <c r="BS86" t="n">
+        <v>162631412509</v>
       </c>
       <c r="BT86" t="n">
         <v>43774</v>
@@ -19958,10 +19788,8 @@
       <c r="BR87" t="n">
         <v>20.73416666666667</v>
       </c>
-      <c r="BS87" t="inlineStr">
-        <is>
-          <t>31,335,013,752</t>
-        </is>
+      <c r="BS87" t="n">
+        <v>31335013752</v>
       </c>
       <c r="BT87" t="n">
         <v>16544</v>
@@ -20182,10 +20010,8 @@
       <c r="BR88" t="n">
         <v>33.43916666666667</v>
       </c>
-      <c r="BS88" t="inlineStr">
-        <is>
-          <t>48,516,371,721</t>
-        </is>
+      <c r="BS88" t="n">
+        <v>48516371721</v>
       </c>
       <c r="BT88" t="n">
         <v>17442</v>
@@ -20404,10 +20230,8 @@
       <c r="BR89" t="n">
         <v>12.32333333333333</v>
       </c>
-      <c r="BS89" t="inlineStr">
-        <is>
-          <t>66,327,344,189</t>
-        </is>
+      <c r="BS89" t="n">
+        <v>66327344189</v>
       </c>
       <c r="BT89" t="n">
         <v>126352</v>
@@ -20624,10 +20448,8 @@
       <c r="BR90" t="n">
         <v>8.506666666666666</v>
       </c>
-      <c r="BS90" t="inlineStr">
-        <is>
-          <t>11,234,045,376</t>
-        </is>
+      <c r="BS90" t="n">
+        <v>11234045376</v>
       </c>
       <c r="BT90" t="n">
         <v>27634</v>
@@ -20848,10 +20670,8 @@
       <c r="BR91" t="n">
         <v>9.620833333333334</v>
       </c>
-      <c r="BS91" t="inlineStr">
-        <is>
-          <t>12,803,445,934</t>
-        </is>
+      <c r="BS91" t="n">
+        <v>12803445934</v>
       </c>
       <c r="BT91" t="n">
         <v>11120</v>
@@ -21072,10 +20892,8 @@
       <c r="BR92" t="n">
         <v>5.698333333333333</v>
       </c>
-      <c r="BS92" t="inlineStr">
-        <is>
-          <t>1,314,385,330,073</t>
-        </is>
+      <c r="BS92" t="n">
+        <v>1314385330073</v>
       </c>
       <c r="BT92" t="n">
         <v>11663</v>
@@ -21296,10 +21114,8 @@
       <c r="BR93" t="n">
         <v>10.11833333333333</v>
       </c>
-      <c r="BS93" t="inlineStr">
-        <is>
-          <t>879,635,084,125</t>
-        </is>
+      <c r="BS93" t="n">
+        <v>879635084125</v>
       </c>
       <c r="BT93" t="n">
         <v>55325</v>
@@ -21520,10 +21336,8 @@
       <c r="BR94" t="n">
         <v>5.95</v>
       </c>
-      <c r="BS94" t="inlineStr">
-        <is>
-          <t>11,880,438,824</t>
-        </is>
+      <c r="BS94" t="n">
+        <v>11880438824</v>
       </c>
       <c r="BT94" t="n">
         <v>2199</v>
@@ -21744,10 +21558,8 @@
       <c r="BR95" t="n">
         <v>10.6025</v>
       </c>
-      <c r="BS95" t="inlineStr">
-        <is>
-          <t>499,338,534,779</t>
-        </is>
+      <c r="BS95" t="n">
+        <v>499338534779</v>
       </c>
       <c r="BT95" t="n">
         <v>103443</v>
@@ -21968,10 +21780,8 @@
       <c r="BR96" t="n">
         <v>0.1258333333333333</v>
       </c>
-      <c r="BS96" t="inlineStr">
-        <is>
-          <t>81,076,723,017</t>
-        </is>
+      <c r="BS96" t="n">
+        <v>81076723017</v>
       </c>
       <c r="BT96" t="n">
         <v>22328</v>
@@ -22192,10 +22002,8 @@
       <c r="BR97" t="n">
         <v>4.665</v>
       </c>
-      <c r="BS97" t="inlineStr">
-        <is>
-          <t>49,921,464,400</t>
-        </is>
+      <c r="BS97" t="n">
+        <v>49921464400</v>
       </c>
       <c r="BT97" t="n">
         <v>14181</v>
@@ -22416,10 +22224,8 @@
       <c r="BR98" t="n">
         <v>6.0125</v>
       </c>
-      <c r="BS98" t="inlineStr">
-        <is>
-          <t>30,881,166,852</t>
-        </is>
+      <c r="BS98" t="n">
+        <v>30881166852</v>
       </c>
       <c r="BT98" t="n">
         <v>5254</v>
@@ -22640,10 +22446,8 @@
       <c r="BR99" t="n">
         <v>14.85833333333333</v>
       </c>
-      <c r="BS99" t="inlineStr">
-        <is>
-          <t>545,179,584,720</t>
-        </is>
+      <c r="BS99" t="n">
+        <v>545179584720</v>
       </c>
       <c r="BT99" t="n">
         <v>15119</v>
@@ -22864,10 +22668,8 @@
       <c r="BR100" t="n">
         <v>12.82416666666667</v>
       </c>
-      <c r="BS100" t="inlineStr">
-        <is>
-          <t>229,629,822,122</t>
-        </is>
+      <c r="BS100" t="n">
+        <v>229629822122</v>
       </c>
       <c r="BT100" t="n">
         <v>23091</v>
@@ -23088,10 +22890,8 @@
       <c r="BR101" t="n">
         <v>1.5825</v>
       </c>
-      <c r="BS101" t="inlineStr">
-        <is>
-          <t>206,224,725,275</t>
-        </is>
+      <c r="BS101" t="n">
+        <v>206224725275</v>
       </c>
       <c r="BT101" t="n">
         <v>91587</v>
@@ -23312,10 +23112,8 @@
       <c r="BR102" t="n">
         <v>10.91916666666667</v>
       </c>
-      <c r="BS102" t="inlineStr">
-        <is>
-          <t>199,493,490,983</t>
-        </is>
+      <c r="BS102" t="n">
+        <v>199493490983</v>
       </c>
       <c r="BT102" t="n">
         <v>10526</v>
@@ -23536,10 +23334,8 @@
       <c r="BR103" t="n">
         <v>18.065</v>
       </c>
-      <c r="BS103" t="inlineStr">
-        <is>
-          <t>44,210,806,366</t>
-        </is>
+      <c r="BS103" t="n">
+        <v>44210806366</v>
       </c>
       <c r="BT103" t="n">
         <v>6500</v>
@@ -23726,10 +23522,8 @@
       <c r="BR104" t="n">
         <v>3.610833333333333</v>
       </c>
-      <c r="BS104" t="inlineStr">
-        <is>
-          <t>1,342,997,306</t>
-        </is>
+      <c r="BS104" t="n">
+        <v>1342997306</v>
       </c>
       <c r="BT104" t="n">
         <v>16018</v>
@@ -23950,10 +23744,8 @@
       <c r="BR105" t="n">
         <v>10.98166666666667</v>
       </c>
-      <c r="BS105" t="inlineStr">
-        <is>
-          <t>311,539,499,645</t>
-        </is>
+      <c r="BS105" t="n">
+        <v>311539499645</v>
       </c>
       <c r="BT105" t="n">
         <v>84442</v>
@@ -24174,10 +23966,8 @@
       <c r="BR106" t="n">
         <v>20.03083333333333</v>
       </c>
-      <c r="BS106" t="inlineStr">
-        <is>
-          <t>49,904,928,335</t>
-        </is>
+      <c r="BS106" t="n">
+        <v>49904928335</v>
       </c>
       <c r="BT106" t="n">
         <v>25569</v>
@@ -24398,10 +24188,8 @@
       <c r="BR107" t="n">
         <v>1.256666666666667</v>
       </c>
-      <c r="BS107" t="inlineStr">
-        <is>
-          <t>350,904,575,292</t>
-        </is>
+      <c r="BS107" t="n">
+        <v>350904575292</v>
       </c>
       <c r="BT107" t="n">
         <v>7174</v>
@@ -24622,10 +24410,8 @@
       <c r="BR108" t="n">
         <v>8.695833333333335</v>
       </c>
-      <c r="BS108" t="inlineStr">
-        <is>
-          <t>1,376,910,811,041</t>
-        </is>
+      <c r="BS108" t="n">
+        <v>1376910811041</v>
       </c>
       <c r="BT108" t="n">
         <v>31171</v>
@@ -24818,10 +24604,8 @@
       <c r="BR109" t="n">
         <v>29.77833333333334</v>
       </c>
-      <c r="BS109" t="inlineStr">
-        <is>
-          <t>5,240,606,061</t>
-        </is>
+      <c r="BS109" t="n">
+        <v>5240606061</v>
       </c>
       <c r="BT109" t="n">
         <v>10530</v>
@@ -25042,10 +24826,8 @@
       <c r="BR110" t="n">
         <v>12.42083333333333</v>
       </c>
-      <c r="BS110" t="inlineStr">
-        <is>
-          <t>573,817,719,109</t>
-        </is>
+      <c r="BS110" t="n">
+        <v>573817719109</v>
       </c>
       <c r="BT110" t="n">
         <v>62956</v>
@@ -25266,10 +25048,8 @@
       <c r="BR111" t="n">
         <v>13.50833333333333</v>
       </c>
-      <c r="BS111" t="inlineStr">
-        <is>
-          <t>709,182,559,935</t>
-        </is>
+      <c r="BS111" t="n">
+        <v>709182559935</v>
       </c>
       <c r="BT111" t="n">
         <v>90809</v>
@@ -25490,10 +25270,8 @@
       <c r="BR112" t="n">
         <v>6.413333333333334</v>
       </c>
-      <c r="BS112" t="inlineStr">
-        <is>
-          <t>407,339,361,696</t>
-        </is>
+      <c r="BS112" t="n">
+        <v>407339361696</v>
       </c>
       <c r="BT112" t="n">
         <v>6662</v>
@@ -25714,10 +25492,8 @@
       <c r="BR113" t="n">
         <v>2.569166666666666</v>
       </c>
-      <c r="BS113" t="inlineStr">
-        <is>
-          <t>934,185,915,467</t>
-        </is>
+      <c r="BS113" t="n">
+        <v>934185915467</v>
       </c>
       <c r="BT113" t="n">
         <v>13170</v>
@@ -25938,10 +25714,8 @@
       <c r="BR114" t="n">
         <v>20.875</v>
       </c>
-      <c r="BS114" t="inlineStr">
-        <is>
-          <t>133,503,411,376</t>
-        </is>
+      <c r="BS114" t="n">
+        <v>133503411376</v>
       </c>
       <c r="BT114" t="n">
         <v>3299</v>
@@ -26162,10 +25936,8 @@
       <c r="BR115" t="n">
         <v>6.994166666666668</v>
       </c>
-      <c r="BS115" t="inlineStr">
-        <is>
-          <t>3,022,827,781,881</t>
-        </is>
+      <c r="BS115" t="n">
+        <v>3022827781881</v>
       </c>
       <c r="BT115" t="n">
         <v>49906</v>
@@ -26386,10 +26158,8 @@
       <c r="BR116" t="n">
         <v>14.2775</v>
       </c>
-      <c r="BS116" t="inlineStr">
-        <is>
-          <t>17,427,609,000,000</t>
-        </is>
+      <c r="BS116" t="n">
+        <v>17427609000000</v>
       </c>
       <c r="BT116" t="n">
         <v>58531</v>
@@ -26610,10 +26380,8 @@
       <c r="BR117" t="n">
         <v>20.72</v>
       </c>
-      <c r="BS117" t="inlineStr">
-        <is>
-          <t>57,236,013,086</t>
-        </is>
+      <c r="BS117" t="n">
+        <v>57236013086</v>
       </c>
       <c r="BT117" t="n">
         <v>18012</v>
@@ -26842,10 +26610,8 @@
       <c r="BR118" t="n">
         <v>8.618333333333334</v>
       </c>
-      <c r="BS118" t="inlineStr">
-        <is>
-          <t>552,025,140,252</t>
-        </is>
+      <c r="BS118" t="n">
+        <v>552025140252</v>
       </c>
       <c r="BT118" t="n">
         <v>14206</v>
@@ -27074,10 +26840,8 @@
       <c r="BR119" t="n">
         <v>3.123333333333333</v>
       </c>
-      <c r="BS119" t="inlineStr">
-        <is>
-          <t>11,121,465,767</t>
-        </is>
+      <c r="BS119" t="n">
+        <v>11121465767</v>
       </c>
       <c r="BT119" t="n">
         <v>3957</v>
@@ -27306,10 +27070,8 @@
       <c r="BR120" t="n">
         <v>11.565</v>
       </c>
-      <c r="BS120" t="inlineStr">
-        <is>
-          <t>1,573,696,522,007</t>
-        </is>
+      <c r="BS120" t="n">
+        <v>1573696522007</v>
       </c>
       <c r="BT120" t="n">
         <v>72856</v>
@@ -27538,10 +27300,8 @@
       <c r="BR121" t="n">
         <v>17.67666666666667</v>
       </c>
-      <c r="BS121" t="inlineStr">
-        <is>
-          <t>430,068,712,972</t>
-        </is>
+      <c r="BS121" t="n">
+        <v>430068712972</v>
       </c>
       <c r="BT121" t="n">
         <v>53229</v>
@@ -27730,10 +27490,8 @@
       <c r="BR122" t="n">
         <v>1.159166666666667</v>
       </c>
-      <c r="BS122" t="inlineStr">
-        <is>
-          <t>10,627,600,000</t>
-        </is>
+      <c r="BS122" t="n">
+        <v>10627600000</v>
       </c>
       <c r="BT122" t="n">
         <v>30455</v>
@@ -27962,10 +27720,8 @@
       <c r="BR123" t="n">
         <v>0.2075</v>
       </c>
-      <c r="BS123" t="inlineStr">
-        <is>
-          <t>32,539,547,872</t>
-        </is>
+      <c r="BS123" t="n">
+        <v>32539547872</v>
       </c>
       <c r="BT123" t="n">
         <v>26793</v>
@@ -28154,10 +27910,8 @@
       <c r="BR124" t="n">
         <v>0</v>
       </c>
-      <c r="BS124" t="inlineStr">
-        <is>
-          <t>4,612,500,000</t>
-        </is>
+      <c r="BS124" t="n">
+        <v>4612500000</v>
       </c>
       <c r="BT124" t="n">
         <v>17395</v>
@@ -28386,10 +28140,8 @@
       <c r="BR125" t="n">
         <v>16.79583333333333</v>
       </c>
-      <c r="BS125" t="inlineStr">
-        <is>
-          <t>520,925,468,953</t>
-        </is>
+      <c r="BS125" t="n">
+        <v>520925468953</v>
       </c>
       <c r="BT125" t="n">
         <v>49489</v>
@@ -28582,10 +28334,8 @@
       <c r="BR126" t="n">
         <v>4.7</v>
       </c>
-      <c r="BS126" t="inlineStr">
-        <is>
-          <t>1,612,573,850</t>
-        </is>
+      <c r="BS126" t="n">
+        <v>1612573850</v>
       </c>
       <c r="BT126" t="n">
         <v>5272</v>
@@ -28814,10 +28564,8 @@
       <c r="BR127" t="n">
         <v>6.1175</v>
       </c>
-      <c r="BS127" t="inlineStr">
-        <is>
-          <t>2,472,806,919,902</t>
-        </is>
+      <c r="BS127" t="n">
+        <v>2472806919902</v>
       </c>
       <c r="BT127" t="n">
         <v>13191</v>
@@ -29046,10 +28794,8 @@
       <c r="BR128" t="n">
         <v>11.18</v>
       </c>
-      <c r="BS128" t="inlineStr">
-        <is>
-          <t>55,758,754,072</t>
-        </is>
+      <c r="BS128" t="n">
+        <v>55758754072</v>
       </c>
       <c r="BT128" t="n">
         <v>8057</v>
@@ -29278,10 +29024,8 @@
       <c r="BR129" t="n">
         <v>11.09083333333333</v>
       </c>
-      <c r="BS129" t="inlineStr">
-        <is>
-          <t>1,842,628,005,830</t>
-        </is>
+      <c r="BS129" t="n">
+        <v>1842628005830</v>
       </c>
       <c r="BT129" t="n">
         <v>55310</v>
@@ -29510,10 +29254,8 @@
       <c r="BR130" t="n">
         <v>11.21</v>
       </c>
-      <c r="BS130" t="inlineStr">
-        <is>
-          <t>278,384,332,694</t>
-        </is>
+      <c r="BS130" t="n">
+        <v>278384332694</v>
       </c>
       <c r="BT130" t="n">
         <v>17140</v>
@@ -29742,10 +29484,8 @@
       <c r="BR131" t="n">
         <v>5.294166666666666</v>
       </c>
-      <c r="BS131" t="inlineStr">
-        <is>
-          <t>380,191,881,860</t>
-        </is>
+      <c r="BS131" t="n">
+        <v>380191881860</v>
       </c>
       <c r="BT131" t="n">
         <v>8731</v>
@@ -29974,10 +29714,8 @@
       <c r="BR132" t="n">
         <v>7.438333333333333</v>
       </c>
-      <c r="BS132" t="inlineStr">
-        <is>
-          <t>49,745,088,112</t>
-        </is>
+      <c r="BS132" t="n">
+        <v>49745088112</v>
       </c>
       <c r="BT132" t="n">
         <v>11443</v>
@@ -30206,10 +29944,8 @@
       <c r="BR133" t="n">
         <v>17.525</v>
       </c>
-      <c r="BS133" t="inlineStr">
-        <is>
-          <t>58,085,856,019</t>
-        </is>
+      <c r="BS133" t="n">
+        <v>58085856019</v>
       </c>
       <c r="BT133" t="n">
         <v>14362</v>
@@ -30438,10 +30174,8 @@
       <c r="BR134" t="n">
         <v>5.384166666666666</v>
       </c>
-      <c r="BS134" t="inlineStr">
-        <is>
-          <t>24,084,572,491</t>
-        </is>
+      <c r="BS134" t="n">
+        <v>24084572491</v>
       </c>
       <c r="BT134" t="n">
         <v>29624</v>
@@ -30670,10 +30404,8 @@
       <c r="BR135" t="n">
         <v>11.2125</v>
       </c>
-      <c r="BS135" t="inlineStr">
-        <is>
-          <t>343,584,385,594</t>
-        </is>
+      <c r="BS135" t="n">
+        <v>343584385594</v>
       </c>
       <c r="BT135" t="n">
         <v>64831</v>
@@ -30902,10 +30634,8 @@
       <c r="BR136" t="n">
         <v>5.24</v>
       </c>
-      <c r="BS136" t="inlineStr">
-        <is>
-          <t>95,129,659,000</t>
-        </is>
+      <c r="BS136" t="n">
+        <v>95129659000</v>
       </c>
       <c r="BT136" t="n">
         <v>6769</v>
@@ -31134,10 +30864,8 @@
       <c r="BR137" t="n">
         <v>9.671666666666667</v>
       </c>
-      <c r="BS137" t="inlineStr">
-        <is>
-          <t>21,977,401,900</t>
-        </is>
+      <c r="BS137" t="n">
+        <v>21977401900</v>
       </c>
       <c r="BT137" t="n">
         <v>3885</v>
@@ -31366,10 +31094,8 @@
       <c r="BR138" t="n">
         <v>19.32666666666667</v>
       </c>
-      <c r="BS138" t="inlineStr">
-        <is>
-          <t>25,137,153,149</t>
-        </is>
+      <c r="BS138" t="n">
+        <v>25137153149</v>
       </c>
       <c r="BT138" t="n">
         <v>20221</v>
@@ -31598,10 +31324,8 @@
       <c r="BR139" t="n">
         <v>16.4025</v>
       </c>
-      <c r="BS139" t="inlineStr">
-        <is>
-          <t>269,980,111,643</t>
-        </is>
+      <c r="BS139" t="n">
+        <v>269980111643</v>
       </c>
       <c r="BT139" t="n">
         <v>52572</v>
@@ -31830,10 +31554,8 @@
       <c r="BR140" t="n">
         <v>16.0275</v>
       </c>
-      <c r="BS140" t="inlineStr">
-        <is>
-          <t>2,811,077,725,704</t>
-        </is>
+      <c r="BS140" t="n">
+        <v>2811077725704</v>
       </c>
       <c r="BT140" t="n">
         <v>46922</v>
@@ -32062,10 +31784,8 @@
       <c r="BR141" t="n">
         <v>4.630833333333333</v>
       </c>
-      <c r="BS141" t="inlineStr">
-        <is>
-          <t>16,140,047,012</t>
-        </is>
+      <c r="BS141" t="n">
+        <v>16140047012</v>
       </c>
       <c r="BT141" t="n">
         <v>3850</v>
@@ -32294,10 +32014,8 @@
       <c r="BR142" t="n">
         <v>12.75666666666667</v>
       </c>
-      <c r="BS142" t="inlineStr">
-        <is>
-          <t>3,752,513,503,278</t>
-        </is>
+      <c r="BS142" t="n">
+        <v>3752513503278</v>
       </c>
       <c r="BT142" t="n">
         <v>48563</v>
@@ -32526,10 +32244,8 @@
       <c r="BR143" t="n">
         <v>4.5925</v>
       </c>
-      <c r="BS143" t="inlineStr">
-        <is>
-          <t>239,862,011,450</t>
-        </is>
+      <c r="BS143" t="n">
+        <v>239862011450</v>
       </c>
       <c r="BT143" t="n">
         <v>22994</v>
@@ -32758,10 +32474,8 @@
       <c r="BR144" t="n">
         <v>3.390833333333333</v>
       </c>
-      <c r="BS144" t="inlineStr">
-        <is>
-          <t>53,851,058,955</t>
-        </is>
+      <c r="BS144" t="n">
+        <v>53851058955</v>
       </c>
       <c r="BT144" t="n">
         <v>3947</v>
@@ -32954,10 +32668,8 @@
       <c r="BR145" t="n">
         <v>29.69833333333333</v>
       </c>
-      <c r="BS145" t="inlineStr">
-        <is>
-          <t>2,990,006,534</t>
-        </is>
+      <c r="BS145" t="n">
+        <v>2990006534</v>
       </c>
       <c r="BT145" t="n">
         <v>4372</v>
@@ -33186,10 +32898,8 @@
       <c r="BR146" t="n">
         <v>22.18583333333333</v>
       </c>
-      <c r="BS146" t="inlineStr">
-        <is>
-          <t>135,215,704,419</t>
-        </is>
+      <c r="BS146" t="n">
+        <v>135215704419</v>
       </c>
       <c r="BT146" t="n">
         <v>14333</v>
@@ -33418,10 +33128,8 @@
       <c r="BR147" t="n">
         <v>18.43666666666667</v>
       </c>
-      <c r="BS147" t="inlineStr">
-        <is>
-          <t>15,548,321,544</t>
-        </is>
+      <c r="BS147" t="n">
+        <v>15548321544</v>
       </c>
       <c r="BT147" t="n">
         <v>51749</v>
@@ -33650,10 +33358,8 @@
       <c r="BR148" t="n">
         <v>9.784166666666666</v>
       </c>
-      <c r="BS148" t="inlineStr">
-        <is>
-          <t>239,389,340,720</t>
-        </is>
+      <c r="BS148" t="n">
+        <v>239389340720</v>
       </c>
       <c r="BT148" t="n">
         <v>56628</v>
@@ -33882,10 +33588,8 @@
       <c r="BR149" t="n">
         <v>6.184166666666666</v>
       </c>
-      <c r="BS149" t="inlineStr">
-        <is>
-          <t>292,489,185,194</t>
-        </is>
+      <c r="BS149" t="n">
+        <v>292489185194</v>
       </c>
       <c r="BT149" t="n">
         <v>40477</v>
@@ -34114,10 +33818,8 @@
       <c r="BR150" t="n">
         <v>7.071666666666666</v>
       </c>
-      <c r="BS150" t="inlineStr">
-        <is>
-          <t>2,130,491,320,659</t>
-        </is>
+      <c r="BS150" t="n">
+        <v>2130491320659</v>
       </c>
       <c r="BT150" t="n">
         <v>37050</v>
@@ -34346,10 +34048,8 @@
       <c r="BR151" t="n">
         <v>19.26333333333333</v>
       </c>
-      <c r="BS151" t="inlineStr">
-        <is>
-          <t>5,155,717,056,271</t>
-        </is>
+      <c r="BS151" t="n">
+        <v>5155717056271</v>
       </c>
       <c r="BT151" t="n">
         <v>42781</v>
@@ -34578,10 +34278,8 @@
       <c r="BR152" t="n">
         <v>24.7225</v>
       </c>
-      <c r="BS152" t="inlineStr">
-        <is>
-          <t>236,634,552,078</t>
-        </is>
+      <c r="BS152" t="n">
+        <v>236634552078</v>
       </c>
       <c r="BT152" t="n">
         <v>15552</v>
@@ -34810,10 +34508,8 @@
       <c r="BR153" t="n">
         <v>0.8233333333333333</v>
       </c>
-      <c r="BS153" t="inlineStr">
-        <is>
-          <t>174,161,142,454</t>
-        </is>
+      <c r="BS153" t="n">
+        <v>174161142454</v>
       </c>
       <c r="BT153" t="n">
         <v>48729</v>
@@ -35042,10 +34738,8 @@
       <c r="BR154" t="n">
         <v>20.1825</v>
       </c>
-      <c r="BS154" t="inlineStr">
-        <is>
-          <t>30,254,677,297</t>
-        </is>
+      <c r="BS154" t="n">
+        <v>30254677297</v>
       </c>
       <c r="BT154" t="n">
         <v>15820</v>
@@ -35274,10 +34968,8 @@
       <c r="BR155" t="n">
         <v>37.04666666666667</v>
       </c>
-      <c r="BS155" t="inlineStr">
-        <is>
-          <t>46,417,340,375</t>
-        </is>
+      <c r="BS155" t="n">
+        <v>46417340375</v>
       </c>
       <c r="BT155" t="n">
         <v>16538</v>
@@ -35476,10 +35168,8 @@
       <c r="BR156" t="n">
         <v>7.623333333333334</v>
       </c>
-      <c r="BS156" t="inlineStr">
-        <is>
-          <t>61,739,352,212</t>
-        </is>
+      <c r="BS156" t="n">
+        <v>61739352212</v>
       </c>
       <c r="BT156" t="n">
         <v>120423</v>
@@ -35704,10 +35394,8 @@
       <c r="BR157" t="n">
         <v>4.768333333333334</v>
       </c>
-      <c r="BS157" t="inlineStr">
-        <is>
-          <t>10,145,114,180</t>
-        </is>
+      <c r="BS157" t="n">
+        <v>10145114180</v>
       </c>
       <c r="BT157" t="n">
         <v>25191</v>
@@ -35936,10 +35624,8 @@
       <c r="BR158" t="n">
         <v>8.139166666666666</v>
       </c>
-      <c r="BS158" t="inlineStr">
-        <is>
-          <t>12,129,642,296</t>
-        </is>
+      <c r="BS158" t="n">
+        <v>12129642296</v>
       </c>
       <c r="BT158" t="n">
         <v>10572</v>
@@ -36168,10 +35854,8 @@
       <c r="BR159" t="n">
         <v>5.415833333333333</v>
       </c>
-      <c r="BS159" t="inlineStr">
-        <is>
-          <t>1,274,443,078,609</t>
-        </is>
+      <c r="BS159" t="n">
+        <v>1274443078609</v>
       </c>
       <c r="BT159" t="n">
         <v>11478</v>
@@ -36400,10 +36084,8 @@
       <c r="BR160" t="n">
         <v>10.46083333333333</v>
       </c>
-      <c r="BS160" t="inlineStr">
-        <is>
-          <t>866,680,000,367</t>
-        </is>
+      <c r="BS160" t="n">
+        <v>866680000367</v>
       </c>
       <c r="BT160" t="n">
         <v>54510</v>
@@ -36632,10 +36314,8 @@
       <c r="BR161" t="n">
         <v>12.04583333333333</v>
       </c>
-      <c r="BS161" t="inlineStr">
-        <is>
-          <t>190,785,204,764</t>
-        </is>
+      <c r="BS161" t="n">
+        <v>190785204764</v>
       </c>
       <c r="BT161" t="n">
         <v>46198</v>
@@ -36864,10 +36544,8 @@
       <c r="BR162" t="n">
         <v>6.7475</v>
       </c>
-      <c r="BS162" t="inlineStr">
-        <is>
-          <t>10,982,972,256</t>
-        </is>
+      <c r="BS162" t="n">
+        <v>10982972256</v>
       </c>
       <c r="BT162" t="n">
         <v>2062</v>
@@ -37096,10 +36774,8 @@
       <c r="BR163" t="n">
         <v>10.58416666666667</v>
       </c>
-      <c r="BS163" t="inlineStr">
-        <is>
-          <t>523,502,127,660</t>
-        </is>
+      <c r="BS163" t="n">
+        <v>523502127660</v>
       </c>
       <c r="BT163" t="n">
         <v>109804</v>
@@ -37328,10 +37004,8 @@
       <c r="BR164" t="n">
         <v>4.109166666666667</v>
       </c>
-      <c r="BS164" t="inlineStr">
-        <is>
-          <t>45,599,994,000</t>
-        </is>
+      <c r="BS164" t="n">
+        <v>45599994000</v>
       </c>
       <c r="BT164" t="n">
         <v>13189</v>
@@ -37560,10 +37234,8 @@
       <c r="BR165" t="n">
         <v>6.2825</v>
       </c>
-      <c r="BS165" t="inlineStr">
-        <is>
-          <t>28,965,906,502</t>
-        </is>
+      <c r="BS165" t="n">
+        <v>28965906502</v>
       </c>
       <c r="BT165" t="n">
         <v>5006</v>
@@ -37792,10 +37464,8 @@
       <c r="BR166" t="n">
         <v>15.6325</v>
       </c>
-      <c r="BS166" t="inlineStr">
-        <is>
-          <t>524,234,322,597</t>
-        </is>
+      <c r="BS166" t="n">
+        <v>524234322597</v>
       </c>
       <c r="BT166" t="n">
         <v>14552</v>
@@ -38024,10 +37694,8 @@
       <c r="BR167" t="n">
         <v>11.06083333333333</v>
       </c>
-      <c r="BS167" t="inlineStr">
-        <is>
-          <t>226,073,492,966</t>
-        </is>
+      <c r="BS167" t="n">
+        <v>226073492966</v>
       </c>
       <c r="BT167" t="n">
         <v>22641</v>
@@ -38256,10 +37924,8 @@
       <c r="BR168" t="n">
         <v>0.6858333333333334</v>
       </c>
-      <c r="BS168" t="inlineStr">
-        <is>
-          <t>198,727,747,253</t>
-        </is>
+      <c r="BS168" t="n">
+        <v>198727747253</v>
       </c>
       <c r="BT168" t="n">
         <v>93066</v>
@@ -38488,10 +38154,8 @@
       <c r="BR169" t="n">
         <v>11.49916666666667</v>
       </c>
-      <c r="BS169" t="inlineStr">
-        <is>
-          <t>191,549,024,911</t>
-        </is>
+      <c r="BS169" t="n">
+        <v>191549024911</v>
       </c>
       <c r="BT169" t="n">
         <v>10080</v>
@@ -38720,10 +38384,8 @@
       <c r="BR170" t="n">
         <v>18.14416666666667</v>
       </c>
-      <c r="BS170" t="inlineStr">
-        <is>
-          <t>45,519,650,911</t>
-        </is>
+      <c r="BS170" t="n">
+        <v>45519650911</v>
       </c>
       <c r="BT170" t="n">
         <v>6662</v>
@@ -38910,10 +38572,8 @@
       <c r="BR171" t="n">
         <v>10.95</v>
       </c>
-      <c r="BS171" t="inlineStr">
-        <is>
-          <t>1,328,091,524</t>
-        </is>
+      <c r="BS171" t="n">
+        <v>1328091524</v>
       </c>
       <c r="BT171" t="n">
         <v>16090</v>
@@ -39142,10 +38802,8 @@
       <c r="BR172" t="n">
         <v>11.48916666666667</v>
       </c>
-      <c r="BS172" t="inlineStr">
-        <is>
-          <t>304,454,327,499</t>
-        </is>
+      <c r="BS172" t="n">
+        <v>304454327499</v>
       </c>
       <c r="BT172" t="n">
         <v>83151</v>
@@ -39374,10 +39032,8 @@
       <c r="BR173" t="n">
         <v>23.585</v>
       </c>
-      <c r="BS173" t="inlineStr">
-        <is>
-          <t>48,116,256,926</t>
-        </is>
+      <c r="BS173" t="n">
+        <v>48116256926</v>
       </c>
       <c r="BT173" t="n">
         <v>24697</v>
@@ -39606,10 +39262,8 @@
       <c r="BR174" t="n">
         <v>1.241666666666667</v>
       </c>
-      <c r="BS174" t="inlineStr">
-        <is>
-          <t>366,829,390,479</t>
-        </is>
+      <c r="BS174" t="n">
+        <v>366829390479</v>
       </c>
       <c r="BT174" t="n">
         <v>7612</v>
@@ -39838,10 +39492,8 @@
       <c r="BR175" t="n">
         <v>8.443333333333333</v>
       </c>
-      <c r="BS175" t="inlineStr">
-        <is>
-          <t>1,361,854,206,549</t>
-        </is>
+      <c r="BS175" t="n">
+        <v>1361854206549</v>
       </c>
       <c r="BT175" t="n">
         <v>30792</v>
@@ -40034,10 +39686,8 @@
       <c r="BR176" t="n">
         <v>23.9</v>
       </c>
-      <c r="BS176" t="inlineStr">
-        <is>
-          <t>5,145,757,576</t>
-        </is>
+      <c r="BS176" t="n">
+        <v>5145757576</v>
       </c>
       <c r="BT176" t="n">
         <v>10451</v>
@@ -40266,10 +39916,8 @@
       <c r="BR177" t="n">
         <v>13.18333333333334</v>
       </c>
-      <c r="BS177" t="inlineStr">
-        <is>
-          <t>578,742,001,488</t>
-        </is>
+      <c r="BS177" t="n">
+        <v>578742001488</v>
       </c>
       <c r="BT177" t="n">
         <v>64133</v>
@@ -40498,10 +40146,8 @@
       <c r="BR178" t="n">
         <v>14.18833333333333</v>
       </c>
-      <c r="BS178" t="inlineStr">
-        <is>
-          <t>688,504,173,431</t>
-        </is>
+      <c r="BS178" t="n">
+        <v>688504173431</v>
       </c>
       <c r="BT178" t="n">
         <v>89634</v>
@@ -40730,10 +40376,8 @@
       <c r="BR179" t="n">
         <v>6.63</v>
       </c>
-      <c r="BS179" t="inlineStr">
-        <is>
-          <t>420,333,333,333</t>
-        </is>
+      <c r="BS179" t="n">
+        <v>420333333333</v>
       </c>
       <c r="BT179" t="n">
         <v>6917</v>
@@ -40962,10 +40606,8 @@
       <c r="BR180" t="n">
         <v>2.951666666666667</v>
       </c>
-      <c r="BS180" t="inlineStr">
-        <is>
-          <t>950,579,413,279</t>
-        </is>
+      <c r="BS180" t="n">
+        <v>950579413279</v>
       </c>
       <c r="BT180" t="n">
         <v>13603</v>
@@ -41194,10 +40836,8 @@
       <c r="BR181" t="n">
         <v>7.076666666666667</v>
       </c>
-      <c r="BS181" t="inlineStr">
-        <is>
-          <t>2,739,818,680,930</t>
-        </is>
+      <c r="BS181" t="n">
+        <v>2739818680930</v>
       </c>
       <c r="BT181" t="n">
         <v>45594</v>
@@ -41426,10 +41066,8 @@
       <c r="BR182" t="n">
         <v>13.88916666666667</v>
       </c>
-      <c r="BS182" t="inlineStr">
-        <is>
-          <t>16,691,517,000,000</t>
-        </is>
+      <c r="BS182" t="n">
+        <v>16691517000000</v>
       </c>
       <c r="BT182" t="n">
         <v>56520</v>
@@ -41658,10 +41296,8 @@
       <c r="BR183" t="n">
         <v>20.7575</v>
       </c>
-      <c r="BS183" t="inlineStr">
-        <is>
-          <t>57,531,233,351</t>
-        </is>
+      <c r="BS183" t="n">
+        <v>57531233351</v>
       </c>
       <c r="BT183" t="n">
         <v>18179</v>
@@ -41890,10 +41526,8 @@
       <c r="BR184" t="n">
         <v>9.984999999999999</v>
       </c>
-      <c r="BS184" t="inlineStr">
-        <is>
-          <t>545,982,375,701</t>
-        </is>
+      <c r="BS184" t="n">
+        <v>545982375701</v>
       </c>
       <c r="BT184" t="n">
         <v>14203</v>
@@ -42122,10 +41756,8 @@
       <c r="BR185" t="n">
         <v>3.0475</v>
       </c>
-      <c r="BS185" t="inlineStr">
-        <is>
-          <t>10,619,320,049</t>
-        </is>
+      <c r="BS185" t="n">
+        <v>10619320049</v>
       </c>
       <c r="BT185" t="n">
         <v>3773</v>
@@ -42354,10 +41986,8 @@
       <c r="BR186" t="n">
         <v>11.63083333333333</v>
       </c>
-      <c r="BS186" t="inlineStr">
-        <is>
-          <t>1,543,411,012,580</t>
-        </is>
+      <c r="BS186" t="n">
+        <v>1543411012580</v>
       </c>
       <c r="BT186" t="n">
         <v>72669</v>
@@ -42586,10 +42216,8 @@
       <c r="BR187" t="n">
         <v>17.21916666666667</v>
       </c>
-      <c r="BS187" t="inlineStr">
-        <is>
-          <t>409,425,234,155</t>
-        </is>
+      <c r="BS187" t="n">
+        <v>409425234155</v>
       </c>
       <c r="BT187" t="n">
         <v>50979</v>
@@ -42784,10 +42412,8 @@
       <c r="BR188" t="n">
         <v>0.9866666666666667</v>
       </c>
-      <c r="BS188" t="inlineStr">
-        <is>
-          <t>10,720,500,000</t>
-        </is>
+      <c r="BS188" t="n">
+        <v>10720500000</v>
       </c>
       <c r="BT188" t="n">
         <v>31204</v>
@@ -43016,10 +42642,8 @@
       <c r="BR189" t="n">
         <v>0.7233333333333333</v>
       </c>
-      <c r="BS189" t="inlineStr">
-        <is>
-          <t>30,749,308,511</t>
-        </is>
+      <c r="BS189" t="n">
+        <v>30749308511</v>
       </c>
       <c r="BT189" t="n">
         <v>25587</v>
@@ -43212,10 +42836,8 @@
       <c r="BR190" t="n">
         <v>0</v>
       </c>
-      <c r="BS190" t="inlineStr">
-        <is>
-          <t>4,656,350,000</t>
-        </is>
+      <c r="BS190" t="n">
+        <v>4656350000</v>
       </c>
       <c r="BT190" t="n">
         <v>17620</v>
@@ -43444,10 +43066,8 @@
       <c r="BR191" t="n">
         <v>18.09416666666667</v>
       </c>
-      <c r="BS191" t="inlineStr">
-        <is>
-          <t>497,884,216,569</t>
-        </is>
+      <c r="BS191" t="n">
+        <v>497884216569</v>
       </c>
       <c r="BT191" t="n">
         <v>47678</v>
@@ -43642,10 +43262,8 @@
       <c r="BR192" t="n">
         <v>6.120833333333334</v>
       </c>
-      <c r="BS192" t="inlineStr">
-        <is>
-          <t>1,573,670,250</t>
-        </is>
+      <c r="BS192" t="n">
+        <v>1573670250</v>
       </c>
       <c r="BT192" t="n">
         <v>5264</v>
@@ -43874,10 +43492,8 @@
       <c r="BR193" t="n">
         <v>6.204166666666667</v>
       </c>
-      <c r="BS193" t="inlineStr">
-        <is>
-          <t>2,465,188,674,415</t>
-        </is>
+      <c r="BS193" t="n">
+        <v>2465188674415</v>
       </c>
       <c r="BT193" t="n">
         <v>13283</v>
@@ -44106,10 +43722,8 @@
       <c r="BR194" t="n">
         <v>13.68083333333333</v>
       </c>
-      <c r="BS194" t="inlineStr">
-        <is>
-          <t>53,903,022,339</t>
-        </is>
+      <c r="BS194" t="n">
+        <v>53903022339</v>
       </c>
       <c r="BT194" t="n">
         <v>7745</v>
@@ -44338,10 +43952,8 @@
       <c r="BR195" t="n">
         <v>10.65666666666667</v>
       </c>
-      <c r="BS195" t="inlineStr">
-        <is>
-          <t>1,824,288,757,448</t>
-        </is>
+      <c r="BS195" t="n">
+        <v>1824288757448</v>
       </c>
       <c r="BT195" t="n">
         <v>55347</v>
@@ -44568,10 +44180,8 @@
       <c r="BR196" t="n">
         <v>12.3675</v>
       </c>
-      <c r="BS196" t="inlineStr">
-        <is>
-          <t>267,122,320,057</t>
-        </is>
+      <c r="BS196" t="n">
+        <v>267122320057</v>
       </c>
       <c r="BT196" t="n">
         <v>16617</v>
@@ -44800,10 +44410,8 @@
       <c r="BR197" t="n">
         <v>5.537500000000001</v>
       </c>
-      <c r="BS197" t="inlineStr">
-        <is>
-          <t>369,659,700,376</t>
-        </is>
+      <c r="BS197" t="n">
+        <v>369659700376</v>
       </c>
       <c r="BT197" t="n">
         <v>8586</v>
@@ -45032,10 +44640,8 @@
       <c r="BR198" t="n">
         <v>6.73</v>
       </c>
-      <c r="BS198" t="inlineStr">
-        <is>
-          <t>46,473,128,286</t>
-        </is>
+      <c r="BS198" t="n">
+        <v>46473128286</v>
       </c>
       <c r="BT198" t="n">
         <v>10832</v>
@@ -45264,10 +44870,8 @@
       <c r="BR199" t="n">
         <v>19.9175</v>
       </c>
-      <c r="BS199" t="inlineStr">
-        <is>
-          <t>56,565,475,275</t>
-        </is>
+      <c r="BS199" t="n">
+        <v>56565475275</v>
       </c>
       <c r="BT199" t="n">
         <v>13952</v>
@@ -45496,10 +45100,8 @@
       <c r="BR200" t="n">
         <v>3.575</v>
       </c>
-      <c r="BS200" t="inlineStr">
-        <is>
-          <t>25,041,372,222</t>
-        </is>
+      <c r="BS200" t="n">
+        <v>25041372222</v>
       </c>
       <c r="BT200" t="n">
         <v>30752</v>
@@ -45728,10 +45330,8 @@
       <c r="BR201" t="n">
         <v>11.93416666666667</v>
       </c>
-      <c r="BS201" t="inlineStr">
-        <is>
-          <t>327,148,899,962</t>
-        </is>
+      <c r="BS201" t="n">
+        <v>327148899962</v>
       </c>
       <c r="BT201" t="n">
         <v>62071</v>
@@ -45960,10 +45560,8 @@
       <c r="BR202" t="n">
         <v>7.073333333333333</v>
       </c>
-      <c r="BS202" t="inlineStr">
-        <is>
-          <t>87,924,544,000</t>
-        </is>
+      <c r="BS202" t="n">
+        <v>87924544000</v>
       </c>
       <c r="BT202" t="n">
         <v>6364</v>
@@ -46192,10 +45790,8 @@
       <c r="BR203" t="n">
         <v>10.26166666666667</v>
       </c>
-      <c r="BS203" t="inlineStr">
-        <is>
-          <t>21,386,153,000</t>
-        </is>
+      <c r="BS203" t="n">
+        <v>21386153000</v>
       </c>
       <c r="BT203" t="n">
         <v>3806</v>
@@ -46424,10 +46020,8 @@
       <c r="BR204" t="n">
         <v>20.13416666666667</v>
       </c>
-      <c r="BS204" t="inlineStr">
-        <is>
-          <t>23,043,864,510</t>
-        </is>
+      <c r="BS204" t="n">
+        <v>23043864510</v>
       </c>
       <c r="BT204" t="n">
         <v>18411</v>
@@ -46626,10 +46220,8 @@
       <c r="BR205" t="n">
         <v>7.631666666666667</v>
       </c>
-      <c r="BS205" t="inlineStr">
-        <is>
-          <t>3,972,012,571</t>
-        </is>
+      <c r="BS205" t="n">
+        <v>3972012571</v>
       </c>
       <c r="BT205" t="n">
         <v>5073</v>
@@ -46858,10 +46450,8 @@
       <c r="BR206" t="n">
         <v>15.58416666666667</v>
       </c>
-      <c r="BS206" t="inlineStr">
-        <is>
-          <t>256,706,466,091</t>
-        </is>
+      <c r="BS206" t="n">
+        <v>256706466091</v>
       </c>
       <c r="BT206" t="n">
         <v>50232</v>
@@ -47090,10 +46680,8 @@
       <c r="BR207" t="n">
         <v>16.58166666666667</v>
       </c>
-      <c r="BS207" t="inlineStr">
-        <is>
-          <t>2,683,825,225,093</t>
-        </is>
+      <c r="BS207" t="n">
+        <v>2683825225093</v>
       </c>
       <c r="BT207" t="n">
         <v>45002</v>
@@ -47322,10 +46910,8 @@
       <c r="BR208" t="n">
         <v>2.906666666666667</v>
       </c>
-      <c r="BS208" t="inlineStr">
-        <is>
-          <t>15,846,474,596</t>
-        </is>
+      <c r="BS208" t="n">
+        <v>15846474596</v>
       </c>
       <c r="BT208" t="n">
         <v>3772</v>
@@ -47554,10 +47140,8 @@
       <c r="BR209" t="n">
         <v>12.35916666666667</v>
       </c>
-      <c r="BS209" t="inlineStr">
-        <is>
-          <t>3,543,983,909,148</t>
-        </is>
+      <c r="BS209" t="n">
+        <v>3543983909148</v>
       </c>
       <c r="BT209" t="n">
         <v>45142</v>
@@ -47786,10 +47370,8 @@
       <c r="BR210" t="n">
         <v>4.443333333333333</v>
       </c>
-      <c r="BS210" t="inlineStr">
-        <is>
-          <t>245,670,666,639</t>
-        </is>
+      <c r="BS210" t="n">
+        <v>245670666639</v>
       </c>
       <c r="BT210" t="n">
         <v>23309</v>
@@ -48018,10 +47600,8 @@
       <c r="BR211" t="n">
         <v>3.483333333333333</v>
       </c>
-      <c r="BS211" t="inlineStr">
-        <is>
-          <t>50,388,454,861</t>
-        </is>
+      <c r="BS211" t="n">
+        <v>50388454861</v>
       </c>
       <c r="BT211" t="n">
         <v>3779</v>
@@ -48218,10 +47798,8 @@
       <c r="BR212" t="n">
         <v>30.665</v>
       </c>
-      <c r="BS212" t="inlineStr">
-        <is>
-          <t>2,861,562,266</t>
-        </is>
+      <c r="BS212" t="n">
+        <v>2861562266</v>
       </c>
       <c r="BT212" t="n">
         <v>4212</v>
@@ -48450,10 +48028,8 @@
       <c r="BR213" t="n">
         <v>25.49666666666667</v>
       </c>
-      <c r="BS213" t="inlineStr">
-        <is>
-          <t>127,856,647,108</t>
-        </is>
+      <c r="BS213" t="n">
+        <v>127856647108</v>
       </c>
       <c r="BT213" t="n">
         <v>13525</v>
@@ -48680,10 +48256,8 @@
       <c r="BR214" t="n">
         <v>12.1175</v>
       </c>
-      <c r="BS214" t="inlineStr">
-        <is>
-          <t>14,292,008,745</t>
-        </is>
+      <c r="BS214" t="n">
+        <v>14292008745</v>
       </c>
       <c r="BT214" t="n">
         <v>48083</v>
@@ -48912,10 +48486,8 @@
       <c r="BR215" t="n">
         <v>11.47166666666667</v>
       </c>
-      <c r="BS215" t="inlineStr">
-        <is>
-          <t>225,571,853,194</t>
-        </is>
+      <c r="BS215" t="n">
+        <v>225571853194</v>
       </c>
       <c r="BT215" t="n">
         <v>53443</v>
@@ -49144,10 +48716,8 @@
       <c r="BR216" t="n">
         <v>6.982500000000001</v>
       </c>
-      <c r="BS216" t="inlineStr">
-        <is>
-          <t>257,296,579,579</t>
-        </is>
+      <c r="BS216" t="n">
+        <v>257296579579</v>
       </c>
       <c r="BT216" t="n">
         <v>36263</v>
@@ -49376,10 +48946,8 @@
       <c r="BR217" t="n">
         <v>7.120833333333334</v>
       </c>
-      <c r="BS217" t="inlineStr">
-        <is>
-          <t>2,072,823,157,060</t>
-        </is>
+      <c r="BS217" t="n">
+        <v>2072823157060</v>
       </c>
       <c r="BT217" t="n">
         <v>36497</v>
@@ -49608,10 +49176,8 @@
       <c r="BR218" t="n">
         <v>19.475</v>
       </c>
-      <c r="BS218" t="inlineStr">
-        <is>
-          <t>6,203,213,121,334</t>
-        </is>
+      <c r="BS218" t="n">
+        <v>6203213121334</v>
       </c>
       <c r="BT218" t="n">
         <v>51379</v>
@@ -49840,10 +49406,8 @@
       <c r="BR219" t="n">
         <v>22.585</v>
       </c>
-      <c r="BS219" t="inlineStr">
-        <is>
-          <t>207,998,568,866</t>
-        </is>
+      <c r="BS219" t="n">
+        <v>207998568866</v>
       </c>
       <c r="BT219" t="n">
         <v>13845</v>
@@ -50072,10 +49636,8 @@
       <c r="BR220" t="n">
         <v>1.299166666666667</v>
       </c>
-      <c r="BS220" t="inlineStr">
-        <is>
-          <t>174,070,025,009</t>
-        </is>
+      <c r="BS220" t="n">
+        <v>174070025009</v>
       </c>
       <c r="BT220" t="n">
         <v>49781</v>
@@ -50304,10 +49866,8 @@
       <c r="BR221" t="n">
         <v>22.30666666666667</v>
       </c>
-      <c r="BS221" t="inlineStr">
-        <is>
-          <t>28,119,996,053</t>
-        </is>
+      <c r="BS221" t="n">
+        <v>28119996053</v>
       </c>
       <c r="BT221" t="n">
         <v>14558</v>
@@ -50536,10 +50096,8 @@
       <c r="BR222" t="n">
         <v>31.17666666666667</v>
       </c>
-      <c r="BS222" t="inlineStr">
-        <is>
-          <t>42,848,195,256</t>
-        </is>
+      <c r="BS222" t="n">
+        <v>42848195256</v>
       </c>
       <c r="BT222" t="n">
         <v>15099</v>
@@ -50738,10 +50296,8 @@
       <c r="BR223" t="n">
         <v>11.68166666666667</v>
       </c>
-      <c r="BS223" t="inlineStr">
-        <is>
-          <t>56,677,961,787</t>
-        </is>
+      <c r="BS223" t="n">
+        <v>56677961787</v>
       </c>
       <c r="BT223" t="n">
         <v>113120</v>
@@ -50968,10 +50524,8 @@
       <c r="BR224" t="n">
         <v>4.989166666666667</v>
       </c>
-      <c r="BS224" t="inlineStr">
-        <is>
-          <t>9,209,559,296</t>
-        </is>
+      <c r="BS224" t="n">
+        <v>9209559296</v>
       </c>
       <c r="BT224" t="n">
         <v>23074</v>
@@ -51200,10 +50754,8 @@
       <c r="BR225" t="n">
         <v>9.520833333333334</v>
       </c>
-      <c r="BS225" t="inlineStr">
-        <is>
-          <t>11,668,685,524</t>
-        </is>
+      <c r="BS225" t="n">
+        <v>11668685524</v>
       </c>
       <c r="BT225" t="n">
         <v>9884</v>
@@ -51432,10 +50984,8 @@
       <c r="BR226" t="n">
         <v>5.285833333333334</v>
       </c>
-      <c r="BS226" t="inlineStr">
-        <is>
-          <t>1,201,090,018,604</t>
-        </is>
+      <c r="BS226" t="n">
+        <v>1201090018604</v>
       </c>
       <c r="BT226" t="n">
         <v>10982</v>
@@ -51664,10 +51214,8 @@
       <c r="BR227" t="n">
         <v>9.875833333333334</v>
       </c>
-      <c r="BS227" t="inlineStr">
-        <is>
-          <t>828,946,812,397</t>
-        </is>
+      <c r="BS227" t="n">
+        <v>828946812397</v>
       </c>
       <c r="BT227" t="n">
         <v>52334</v>
@@ -51896,10 +51444,8 @@
       <c r="BR228" t="n">
         <v>13.16916666666667</v>
       </c>
-      <c r="BS228" t="inlineStr">
-        <is>
-          <t>176,192,886,551</t>
-        </is>
+      <c r="BS228" t="n">
+        <v>176192886551</v>
       </c>
       <c r="BT228" t="n">
         <v>42756</v>
@@ -52128,10 +51674,8 @@
       <c r="BR229" t="n">
         <v>6.024166666666667</v>
       </c>
-      <c r="BS229" t="inlineStr">
-        <is>
-          <t>10,532,001,130</t>
-        </is>
+      <c r="BS229" t="n">
+        <v>10532001130</v>
       </c>
       <c r="BT229" t="n">
         <v>2006</v>
@@ -52360,10 +51904,8 @@
       <c r="BR230" t="n">
         <v>10.5</v>
       </c>
-      <c r="BS230" t="inlineStr">
-        <is>
-          <t>510,229,136,227</t>
-        </is>
+      <c r="BS230" t="n">
+        <v>510229136227</v>
       </c>
       <c r="BT230" t="n">
         <v>108408</v>
@@ -52590,10 +52132,8 @@
       <c r="BR231" t="n">
         <v>4.626666666666667</v>
       </c>
-      <c r="BS231" t="inlineStr">
-        <is>
-          <t>40,429,734,400</t>
-        </is>
+      <c r="BS231" t="n">
+        <v>40429734400</v>
       </c>
       <c r="BT231" t="n">
         <v>11908</v>
@@ -52822,10 +52362,8 @@
       <c r="BR232" t="n">
         <v>5.274999999999999</v>
       </c>
-      <c r="BS232" t="inlineStr">
-        <is>
-          <t>24,595,319,574</t>
-        </is>
+      <c r="BS232" t="n">
+        <v>24595319574</v>
       </c>
       <c r="BT232" t="n">
         <v>4319</v>
@@ -53054,10 +52592,8 @@
       <c r="BR233" t="n">
         <v>16.03083333333333</v>
       </c>
-      <c r="BS233" t="inlineStr">
-        <is>
-          <t>500,360,816,828</t>
-        </is>
+      <c r="BS233" t="n">
+        <v>500360816828</v>
       </c>
       <c r="BT233" t="n">
         <v>13894</v>
@@ -53286,10 +52822,8 @@
       <c r="BR234" t="n">
         <v>11.61666666666667</v>
       </c>
-      <c r="BS234" t="inlineStr">
-        <is>
-          <t>216,368,178,659</t>
-        </is>
+      <c r="BS234" t="n">
+        <v>216368178659</v>
       </c>
       <c r="BT234" t="n">
         <v>21573</v>
@@ -53518,10 +53052,8 @@
       <c r="BR235" t="n">
         <v>1.105833333333333</v>
       </c>
-      <c r="BS235" t="inlineStr">
-        <is>
-          <t>186,833,516,484</t>
-        </is>
+      <c r="BS235" t="n">
+        <v>186833516484</v>
       </c>
       <c r="BT235" t="n">
         <v>93270</v>
@@ -53750,10 +53282,8 @@
       <c r="BR236" t="n">
         <v>11.83583333333333</v>
       </c>
-      <c r="BS236" t="inlineStr">
-        <is>
-          <t>171,664,638,717</t>
-        </is>
+      <c r="BS236" t="n">
+        <v>171664638717</v>
       </c>
       <c r="BT236" t="n">
         <v>9015</v>
@@ -53982,10 +53512,8 @@
       <c r="BR237" t="n">
         <v>19.54416666666667</v>
       </c>
-      <c r="BS237" t="inlineStr">
-        <is>
-          <t>40,742,313,861</t>
-        </is>
+      <c r="BS237" t="n">
+        <v>40742313861</v>
       </c>
       <c r="BT237" t="n">
         <v>5933</v>
@@ -54214,10 +53742,8 @@
       <c r="BR238" t="n">
         <v>11.80166666666667</v>
       </c>
-      <c r="BS238" t="inlineStr">
-        <is>
-          <t>290,673,681,684</t>
-        </is>
+      <c r="BS238" t="n">
+        <v>290673681684</v>
       </c>
       <c r="BT238" t="n">
         <v>80040</v>
@@ -54446,10 +53972,8 @@
       <c r="BR239" t="n">
         <v>23.31166666666667</v>
       </c>
-      <c r="BS239" t="inlineStr">
-        <is>
-          <t>46,352,802,766</t>
-        </is>
+      <c r="BS239" t="n">
+        <v>46352802766</v>
       </c>
       <c r="BT239" t="n">
         <v>23820</v>
@@ -54678,10 +54202,8 @@
       <c r="BR240" t="n">
         <v>1.13</v>
       </c>
-      <c r="BS240" t="inlineStr">
-        <is>
-          <t>396,332,702,639</t>
-        </is>
+      <c r="BS240" t="n">
+        <v>396332702639</v>
       </c>
       <c r="BT240" t="n">
         <v>8347</v>
@@ -54910,10 +54432,8 @@
       <c r="BR241" t="n">
         <v>8.073333333333332</v>
       </c>
-      <c r="BS241" t="inlineStr">
-        <is>
-          <t>1,336,018,949,806</t>
-        </is>
+      <c r="BS241" t="n">
+        <v>1336018949806</v>
       </c>
       <c r="BT241" t="n">
         <v>30146</v>
@@ -55110,10 +54630,8 @@
       <c r="BR242" t="n">
         <v>37.8425</v>
       </c>
-      <c r="BS242" t="inlineStr">
-        <is>
-          <t>4,980,000,000</t>
-        </is>
+      <c r="BS242" t="n">
+        <v>4980000000</v>
       </c>
       <c r="BT242" t="n">
         <v>10227</v>
@@ -55342,10 +54860,8 @@
       <c r="BR243" t="n">
         <v>12.3425</v>
       </c>
-      <c r="BS243" t="inlineStr">
-        <is>
-          <t>543,880,647,757</t>
-        </is>
+      <c r="BS243" t="n">
+        <v>543880647757</v>
       </c>
       <c r="BT243" t="n">
         <v>60776</v>
@@ -55574,10 +55090,8 @@
       <c r="BR244" t="n">
         <v>13.7825</v>
       </c>
-      <c r="BS244" t="inlineStr">
-        <is>
-          <t>668,043,614,123</t>
-        </is>
+      <c r="BS244" t="n">
+        <v>668043614123</v>
       </c>
       <c r="BT244" t="n">
         <v>87951</v>
@@ -55806,10 +55320,8 @@
       <c r="BR245" t="n">
         <v>6.724166666666666</v>
       </c>
-      <c r="BS245" t="inlineStr">
-        <is>
-          <t>397,558,094,270</t>
-        </is>
+      <c r="BS245" t="n">
+        <v>397558094270</v>
       </c>
       <c r="BT245" t="n">
         <v>6584</v>
@@ -56038,10 +55550,8 @@
       <c r="BR246" t="n">
         <v>2.366666666666667</v>
       </c>
-      <c r="BS246" t="inlineStr">
-        <is>
-          <t>873,982,246,102</t>
-        </is>
+      <c r="BS246" t="n">
+        <v>873982246102</v>
       </c>
       <c r="BT246" t="n">
         <v>12671</v>
@@ -56270,10 +55780,8 @@
       <c r="BR247" t="n">
         <v>22.3725</v>
       </c>
-      <c r="BS247" t="inlineStr">
-        <is>
-          <t>175,781,379,051</t>
-        </is>
+      <c r="BS247" t="n">
+        <v>175781379051</v>
       </c>
       <c r="BT247" t="n">
         <v>4096</v>
@@ -56502,10 +56010,8 @@
       <c r="BR248" t="n">
         <v>6.6225</v>
       </c>
-      <c r="BS248" t="inlineStr">
-        <is>
-          <t>2,662,085,168,499</t>
-        </is>
+      <c r="BS248" t="n">
+        <v>2662085168499</v>
       </c>
       <c r="BT248" t="n">
         <v>44585</v>
@@ -56734,10 +56240,8 @@
       <c r="BR249" t="n">
         <v>13.76166666666666</v>
       </c>
-      <c r="BS249" t="inlineStr">
-        <is>
-          <t>16,155,255,000,000</t>
-        </is>
+      <c r="BS249" t="n">
+        <v>16155255000000</v>
       </c>
       <c r="BT249" t="n">
         <v>55170</v>
@@ -56966,10 +56470,8 @@
       <c r="BR250" t="n">
         <v>22.02916666666667</v>
       </c>
-      <c r="BS250" t="inlineStr">
-        <is>
-          <t>51,264,390,116</t>
-        </is>
+      <c r="BS250" t="n">
+        <v>51264390116</v>
       </c>
       <c r="BT250" t="n">
         <v>16264</v>
@@ -57198,10 +56700,8 @@
       <c r="BR251" t="n">
         <v>8.8225</v>
       </c>
-      <c r="BS251" t="inlineStr">
-        <is>
-          <t>530,163,281,575</t>
-        </is>
+      <c r="BS251" t="n">
+        <v>530163281575</v>
       </c>
       <c r="BT251" t="n">
         <v>13946</v>
@@ -57430,10 +56930,8 @@
       <c r="BR252" t="n">
         <v>2.748333333333333</v>
       </c>
-      <c r="BS252" t="inlineStr">
-        <is>
-          <t>10,142,111,334</t>
-        </is>
+      <c r="BS252" t="n">
+        <v>10142111334</v>
       </c>
       <c r="BT252" t="n">
         <v>3798</v>
@@ -57662,10 +57160,8 @@
       <c r="BR253" t="n">
         <v>11.10166666666667</v>
       </c>
-      <c r="BS253" t="inlineStr">
-        <is>
-          <t>1,394,280,784,778</t>
-        </is>
+      <c r="BS253" t="n">
+        <v>1394280784778</v>
       </c>
       <c r="BT253" t="n">
         <v>66770</v>
@@ -57894,10 +57390,8 @@
       <c r="BR254" t="n">
         <v>17.62416666666667</v>
       </c>
-      <c r="BS254" t="inlineStr">
-        <is>
-          <t>431,120,310,089</t>
-        </is>
+      <c r="BS254" t="n">
+        <v>431120310089</v>
       </c>
       <c r="BT254" t="n">
         <v>53923</v>
@@ -58092,10 +57586,8 @@
       <c r="BR255" t="n">
         <v>1.0825</v>
       </c>
-      <c r="BS255" t="inlineStr">
-        <is>
-          <t>10,070,450,000</t>
-        </is>
+      <c r="BS255" t="n">
+        <v>10070450000</v>
       </c>
       <c r="BT255" t="n">
         <v>29761</v>
@@ -58324,10 +57816,8 @@
       <c r="BR256" t="n">
         <v>1.246666666666667</v>
       </c>
-      <c r="BS256" t="inlineStr">
-        <is>
-          <t>28,776,595,745</t>
-        </is>
+      <c r="BS256" t="n">
+        <v>28776595745</v>
       </c>
       <c r="BT256" t="n">
         <v>26078</v>
@@ -58520,10 +58010,8 @@
       <c r="BR257" t="n">
         <v>0</v>
       </c>
-      <c r="BS257" t="inlineStr">
-        <is>
-          <t>4,660,900,000</t>
-        </is>
+      <c r="BS257" t="n">
+        <v>4660900000</v>
       </c>
       <c r="BT257" t="n">
         <v>17708</v>
@@ -58752,10 +58240,8 @@
       <c r="BR258" t="n">
         <v>18.8925</v>
       </c>
-      <c r="BS258" t="inlineStr">
-        <is>
-          <t>527,008,453,887</t>
-        </is>
+      <c r="BS258" t="n">
+        <v>527008453887</v>
       </c>
       <c r="BT258" t="n">
         <v>50893</v>
@@ -58950,10 +58436,8 @@
       <c r="BR259" t="n">
         <v>12.775</v>
       </c>
-      <c r="BS259" t="inlineStr">
-        <is>
-          <t>1,487,005,600</t>
-        </is>
+      <c r="BS259" t="n">
+        <v>1487005600</v>
       </c>
       <c r="BT259" t="n">
         <v>5098</v>
@@ -59182,10 +58666,8 @@
       <c r="BR260" t="n">
         <v>0.1091666666666667</v>
       </c>
-      <c r="BS260" t="inlineStr">
-        <is>
-          <t>18,644,723,861</t>
-        </is>
+      <c r="BS260" t="n">
+        <v>18644723861</v>
       </c>
       <c r="BT260" t="n">
         <v>5076</v>
@@ -59414,10 +58896,8 @@
       <c r="BR261" t="n">
         <v>6.034166666666667</v>
       </c>
-      <c r="BS261" t="inlineStr">
-        <is>
-          <t>2,616,201,578,192</t>
-        </is>
+      <c r="BS261" t="n">
+        <v>2616201578192</v>
       </c>
       <c r="BT261" t="n">
         <v>14245</v>
@@ -59646,10 +59126,8 @@
       <c r="BR262" t="n">
         <v>11.12666666666667</v>
       </c>
-      <c r="BS262" t="inlineStr">
-        <is>
-          <t>57,418,414,504</t>
-        </is>
+      <c r="BS262" t="n">
+        <v>57418414504</v>
       </c>
       <c r="BT262" t="n">
         <v>8137</v>
@@ -59878,10 +59356,8 @@
       <c r="BR263" t="n">
         <v>10.41833333333333</v>
       </c>
-      <c r="BS263" t="inlineStr">
-        <is>
-          <t>1,788,647,906,048</t>
-        </is>
+      <c r="BS263" t="n">
+        <v>1788647906048</v>
       </c>
       <c r="BT263" t="n">
         <v>54841</v>
@@ -60108,10 +59584,8 @@
       <c r="BR264" t="n">
         <v>13.40333333333333</v>
       </c>
-      <c r="BS264" t="inlineStr">
-        <is>
-          <t>252,251,992,029</t>
-        </is>
+      <c r="BS264" t="n">
+        <v>252251992029</v>
       </c>
       <c r="BT264" t="n">
         <v>15854</v>
@@ -60340,10 +59814,8 @@
       <c r="BR265" t="n">
         <v>5.239999999999999</v>
       </c>
-      <c r="BS265" t="inlineStr">
-        <is>
-          <t>335,415,156,702</t>
-        </is>
+      <c r="BS265" t="n">
+        <v>335415156702</v>
       </c>
       <c r="BT265" t="n">
         <v>7885</v>
@@ -60572,10 +60044,8 @@
       <c r="BR266" t="n">
         <v>7.485833333333333</v>
       </c>
-      <c r="BS266" t="inlineStr">
-        <is>
-          <t>42,262,697,840</t>
-        </is>
+      <c r="BS266" t="n">
+        <v>42262697840</v>
       </c>
       <c r="BT266" t="n">
         <v>9978</v>
@@ -60804,10 +60274,8 @@
       <c r="BR267" t="n">
         <v>18.42583333333333</v>
       </c>
-      <c r="BS267" t="inlineStr">
-        <is>
-          <t>62,375,044,443</t>
-        </is>
+      <c r="BS267" t="n">
+        <v>62375044443</v>
       </c>
       <c r="BT267" t="n">
         <v>14890</v>
@@ -61036,10 +60504,8 @@
       <c r="BR268" t="n">
         <v>3.648333333333333</v>
       </c>
-      <c r="BS268" t="inlineStr">
-        <is>
-          <t>27,427,161,523</t>
-        </is>
+      <c r="BS268" t="n">
+        <v>27427161523</v>
       </c>
       <c r="BT268" t="n">
         <v>34249</v>
@@ -61268,10 +60734,8 @@
       <c r="BR269" t="n">
         <v>10.5275</v>
       </c>
-      <c r="BS269" t="inlineStr">
-        <is>
-          <t>344,003,209,696</t>
-        </is>
+      <c r="BS269" t="n">
+        <v>344003209696</v>
       </c>
       <c r="BT269" t="n">
         <v>65598</v>
@@ -61500,10 +60964,8 @@
       <c r="BR270" t="n">
         <v>6.816666666666666</v>
       </c>
-      <c r="BS270" t="inlineStr">
-        <is>
-          <t>79,276,664,000</t>
-        </is>
+      <c r="BS270" t="n">
+        <v>79276664000</v>
       </c>
       <c r="BT270" t="n">
         <v>5836</v>
@@ -61732,10 +61194,8 @@
       <c r="BR271" t="n">
         <v>9.621666666666666</v>
       </c>
-      <c r="BS271" t="inlineStr">
-        <is>
-          <t>20,283,783,700</t>
-        </is>
+      <c r="BS271" t="n">
+        <v>20283783700</v>
       </c>
       <c r="BT271" t="n">
         <v>3631</v>
@@ -61964,10 +61424,8 @@
       <c r="BR272" t="n">
         <v>19.105</v>
       </c>
-      <c r="BS272" t="inlineStr">
-        <is>
-          <t>23,170,239,901</t>
-        </is>
+      <c r="BS272" t="n">
+        <v>23170239901</v>
       </c>
       <c r="BT272" t="n">
         <v>18545</v>
@@ -62166,10 +61624,8 @@
       <c r="BR273" t="n">
         <v>8.914166666666667</v>
       </c>
-      <c r="BS273" t="inlineStr">
-        <is>
-          <t>3,774,530,616</t>
-        </is>
+      <c r="BS273" t="n">
+        <v>3774530616</v>
       </c>
       <c r="BT273" t="n">
         <v>4862</v>
@@ -62398,10 +61854,8 @@
       <c r="BR274" t="n">
         <v>16.9675</v>
       </c>
-      <c r="BS274" t="inlineStr">
-        <is>
-          <t>273,674,236,773</t>
-        </is>
+      <c r="BS274" t="n">
+        <v>273674236773</v>
       </c>
       <c r="BT274" t="n">
         <v>53809</v>
@@ -62630,10 +62084,8 @@
       <c r="BR275" t="n">
         <v>17.59833333333333</v>
       </c>
-      <c r="BS275" t="inlineStr">
-        <is>
-          <t>2,861,408,170,265</t>
-        </is>
+      <c r="BS275" t="n">
+        <v>2861408170265</v>
       </c>
       <c r="BT275" t="n">
         <v>48217</v>
@@ -62862,10 +62314,8 @@
       <c r="BR276" t="n">
         <v>3.025833333333333</v>
       </c>
-      <c r="BS276" t="inlineStr">
-        <is>
-          <t>14,434,619,982</t>
-        </is>
+      <c r="BS276" t="n">
+        <v>14434619982</v>
       </c>
       <c r="BT276" t="n">
         <v>3435</v>
@@ -63094,10 +62544,8 @@
       <c r="BR277" t="n">
         <v>12.735</v>
       </c>
-      <c r="BS277" t="inlineStr">
-        <is>
-          <t>3,757,698,281,118</t>
-        </is>
+      <c r="BS277" t="n">
+        <v>3757698281118</v>
       </c>
       <c r="BT277" t="n">
         <v>47947</v>
@@ -63326,10 +62774,8 @@
       <c r="BR278" t="n">
         <v>4.056666666666667</v>
       </c>
-      <c r="BS278" t="inlineStr">
-        <is>
-          <t>287,797,822,093</t>
-        </is>
+      <c r="BS278" t="n">
+        <v>287797822093</v>
       </c>
       <c r="BT278" t="n">
         <v>26825</v>
@@ -63558,10 +63004,8 @@
       <c r="BR279" t="n">
         <v>2.890833333333333</v>
       </c>
-      <c r="BS279" t="inlineStr">
-        <is>
-          <t>47,654,841,113</t>
-        </is>
+      <c r="BS279" t="n">
+        <v>47654841113</v>
       </c>
       <c r="BT279" t="n">
         <v>3661</v>
@@ -63758,10 +63202,8 @@
       <c r="BR280" t="n">
         <v>29.1275</v>
       </c>
-      <c r="BS280" t="inlineStr">
-        <is>
-          <t>2,576,024,116</t>
-        </is>
+      <c r="BS280" t="n">
+        <v>2576024116</v>
       </c>
       <c r="BT280" t="n">
         <v>3815</v>
@@ -63990,10 +63432,8 @@
       <c r="BR281" t="n">
         <v>24.9875</v>
       </c>
-      <c r="BS281" t="inlineStr">
-        <is>
-          <t>140,782,064,609</t>
-        </is>
+      <c r="BS281" t="n">
+        <v>140782064609</v>
       </c>
       <c r="BT281" t="n">
         <v>14827</v>
@@ -64220,10 +63660,8 @@
       <c r="BR282" t="n">
         <v>7.745833333333334</v>
       </c>
-      <c r="BS282" t="inlineStr">
-        <is>
-          <t>14,732,689,535</t>
-        </is>
+      <c r="BS282" t="n">
+        <v>14732689535</v>
       </c>
       <c r="BT282" t="n">
         <v>49861</v>
@@ -64452,10 +63890,8 @@
       <c r="BR283" t="n">
         <v>11.54833333333333</v>
       </c>
-      <c r="BS283" t="inlineStr">
-        <is>
-          <t>239,018,536,582</t>
-        </is>
+      <c r="BS283" t="n">
+        <v>239018536582</v>
       </c>
       <c r="BT283" t="n">
         <v>56655</v>
@@ -64684,10 +64120,8 @@
       <c r="BR284" t="n">
         <v>7.284166666666667</v>
       </c>
-      <c r="BS284" t="inlineStr">
-        <is>
-          <t>261,628,548,084</t>
-        </is>
+      <c r="BS284" t="n">
+        <v>261628548084</v>
       </c>
       <c r="BT284" t="n">
         <v>37528</v>
@@ -64916,10 +64350,8 @@
       <c r="BR285" t="n">
         <v>7.173333333333333</v>
       </c>
-      <c r="BS285" t="inlineStr">
-        <is>
-          <t>2,276,292,404,601</t>
-        </is>
+      <c r="BS285" t="n">
+        <v>2276292404601</v>
       </c>
       <c r="BT285" t="n">
         <v>40210</v>
@@ -65148,10 +64580,8 @@
       <c r="BR286" t="n">
         <v>2.321666666666667</v>
       </c>
-      <c r="BS286" t="inlineStr">
-        <is>
-          <t>14,439,910,353</t>
-        </is>
+      <c r="BS286" t="n">
+        <v>14439910353</v>
       </c>
       <c r="BT286" t="n">
         <v>5552</v>
@@ -65380,10 +64810,8 @@
       <c r="BR287" t="n">
         <v>21.03416666666667</v>
       </c>
-      <c r="BS287" t="inlineStr">
-        <is>
-          <t>6,157,459,594,824</t>
-        </is>
+      <c r="BS287" t="n">
+        <v>6157459594824</v>
       </c>
       <c r="BT287" t="n">
         <v>50919</v>
@@ -65612,10 +65040,8 @@
       <c r="BR288" t="n">
         <v>24.48</v>
       </c>
-      <c r="BS288" t="inlineStr">
-        <is>
-          <t>192,626,507,972</t>
-        </is>
+      <c r="BS288" t="n">
+        <v>192626507972</v>
       </c>
       <c r="BT288" t="n">
         <v>12969</v>
@@ -65844,10 +65270,8 @@
       <c r="BR289" t="n">
         <v>0.9508333333333333</v>
       </c>
-      <c r="BS289" t="inlineStr">
-        <is>
-          <t>154,027,536,232</t>
-        </is>
+      <c r="BS289" t="n">
+        <v>154027536232</v>
       </c>
       <c r="BT289" t="n">
         <v>46203</v>
@@ -66076,10 +65500,8 @@
       <c r="BR290" t="n">
         <v>24.0625</v>
       </c>
-      <c r="BS290" t="inlineStr">
-        <is>
-          <t>28,223,552,825</t>
-        </is>
+      <c r="BS290" t="n">
+        <v>28223552825</v>
       </c>
       <c r="BT290" t="n">
         <v>14447</v>
@@ -66308,10 +65730,8 @@
       <c r="BR291" t="n">
         <v>33.97416666666667</v>
       </c>
-      <c r="BS291" t="inlineStr">
-        <is>
-          <t>43,476,873,413</t>
-        </is>
+      <c r="BS291" t="n">
+        <v>43476873413</v>
       </c>
       <c r="BT291" t="n">
         <v>15097</v>
@@ -66510,10 +65930,8 @@
       <c r="BR292" t="n">
         <v>11.3775</v>
       </c>
-      <c r="BS292" t="inlineStr">
-        <is>
-          <t>60,004,630,234</t>
-        </is>
+      <c r="BS292" t="n">
+        <v>60004630234</v>
       </c>
       <c r="BT292" t="n">
         <v>122729</v>
@@ -66740,10 +66158,8 @@
       <c r="BR293" t="n">
         <v>3.958333333333333</v>
       </c>
-      <c r="BS293" t="inlineStr">
-        <is>
-          <t>9,507,645,260</t>
-        </is>
+      <c r="BS293" t="n">
+        <v>9507645260</v>
       </c>
       <c r="BT293" t="n">
         <v>23984</v>
@@ -66972,10 +66388,8 @@
       <c r="BR294" t="n">
         <v>10.00333333333333</v>
       </c>
-      <c r="BS294" t="inlineStr">
-        <is>
-          <t>11,518,393,367</t>
-        </is>
+      <c r="BS294" t="n">
+        <v>11518393367</v>
       </c>
       <c r="BT294" t="n">
         <v>9817</v>
@@ -67204,10 +66618,8 @@
       <c r="BR295" t="n">
         <v>5.46</v>
       </c>
-      <c r="BS295" t="inlineStr">
-        <is>
-          <t>1,180,489,563,964</t>
-        </is>
+      <c r="BS295" t="n">
+        <v>1180489563964</v>
       </c>
       <c r="BT295" t="n">
         <v>10965</v>
@@ -67436,10 +66848,8 @@
       <c r="BR296" t="n">
         <v>9.423333333333334</v>
       </c>
-      <c r="BS296" t="inlineStr">
-        <is>
-          <t>893,757,287,202</t>
-        </is>
+      <c r="BS296" t="n">
+        <v>893757287202</v>
       </c>
       <c r="BT296" t="n">
         <v>56667</v>
@@ -67668,10 +67078,8 @@
       <c r="BR297" t="n">
         <v>11.90166666666667</v>
       </c>
-      <c r="BS297" t="inlineStr">
-        <is>
-          <t>168,461,998,741</t>
-        </is>
+      <c r="BS297" t="n">
+        <v>168461998741</v>
       </c>
       <c r="BT297" t="n">
         <v>41184</v>
@@ -67900,10 +67308,8 @@
       <c r="BR298" t="n">
         <v>7.462499999999999</v>
       </c>
-      <c r="BS298" t="inlineStr">
-        <is>
-          <t>9,774,316,692</t>
-        </is>
+      <c r="BS298" t="n">
+        <v>9774316692</v>
       </c>
       <c r="BT298" t="n">
         <v>1888</v>
@@ -68132,10 +67538,8 @@
       <c r="BR299" t="n">
         <v>12.2075</v>
       </c>
-      <c r="BS299" t="inlineStr">
-        <is>
-          <t>498,831,558,926</t>
-        </is>
+      <c r="BS299" t="n">
+        <v>498831558926</v>
       </c>
       <c r="BT299" t="n">
         <v>107430</v>
@@ -68362,10 +67766,8 @@
       <c r="BR300" t="n">
         <v>5.2275</v>
       </c>
-      <c r="BS300" t="inlineStr">
-        <is>
-          <t>34,686,224,300</t>
-        </is>
+      <c r="BS300" t="n">
+        <v>34686224300</v>
       </c>
       <c r="BT300" t="n">
         <v>10403</v>
@@ -68594,10 +67996,8 @@
       <c r="BR301" t="n">
         <v>5.6525</v>
       </c>
-      <c r="BS301" t="inlineStr">
-        <is>
-          <t>25,099,681,461</t>
-        </is>
+      <c r="BS301" t="n">
+        <v>25099681461</v>
       </c>
       <c r="BT301" t="n">
         <v>4474</v>
@@ -68826,10 +68226,8 @@
       <c r="BR302" t="n">
         <v>3.7425</v>
       </c>
-      <c r="BS302" t="inlineStr">
-        <is>
-          <t>224,143,083,707</t>
-        </is>
+      <c r="BS302" t="n">
+        <v>224143083707</v>
       </c>
       <c r="BT302" t="n">
         <v>2662</v>
@@ -69058,10 +68456,8 @@
       <c r="BR303" t="n">
         <v>15.32166666666667</v>
       </c>
-      <c r="BS303" t="inlineStr">
-        <is>
-          <t>528,832,185,770</t>
-        </is>
+      <c r="BS303" t="n">
+        <v>528832185770</v>
       </c>
       <c r="BT303" t="n">
         <v>14686</v>
@@ -69290,10 +68686,8 @@
       <c r="BR304" t="n">
         <v>10.655</v>
       </c>
-      <c r="BS304" t="inlineStr">
-        <is>
-          <t>244,895,101,712</t>
-        </is>
+      <c r="BS304" t="n">
+        <v>244895101712</v>
       </c>
       <c r="BT304" t="n">
         <v>24337</v>
@@ -69522,10 +68916,8 @@
       <c r="BR305" t="n">
         <v>1.570833333333334</v>
       </c>
-      <c r="BS305" t="inlineStr">
-        <is>
-          <t>167,775,274,725</t>
-        </is>
+      <c r="BS305" t="n">
+        <v>167775274725</v>
       </c>
       <c r="BT305" t="n">
         <v>90490</v>
@@ -69754,10 +69146,8 @@
       <c r="BR306" t="n">
         <v>11.565</v>
       </c>
-      <c r="BS306" t="inlineStr">
-        <is>
-          <t>184,367,381,749</t>
-        </is>
+      <c r="BS306" t="n">
+        <v>184367381749</v>
       </c>
       <c r="BT306" t="n">
         <v>9086</v>
@@ -69986,10 +69376,8 @@
       <c r="BR307" t="n">
         <v>20.2875</v>
       </c>
-      <c r="BS307" t="inlineStr">
-        <is>
-          <t>46,466,728,667</t>
-        </is>
+      <c r="BS307" t="n">
+        <v>46466728667</v>
       </c>
       <c r="BT307" t="n">
         <v>6734</v>
@@ -70218,10 +69606,8 @@
       <c r="BR308" t="n">
         <v>9.746666666666668</v>
       </c>
-      <c r="BS308" t="inlineStr">
-        <is>
-          <t>275,966,926,379</t>
-        </is>
+      <c r="BS308" t="n">
+        <v>275966926379</v>
       </c>
       <c r="BT308" t="n">
         <v>76638</v>
@@ -70450,10 +69836,8 @@
       <c r="BR309" t="n">
         <v>23.47166666666667</v>
       </c>
-      <c r="BS309" t="inlineStr">
-        <is>
-          <t>51,290,792,018</t>
-        </is>
+      <c r="BS309" t="n">
+        <v>51290792018</v>
       </c>
       <c r="BT309" t="n">
         <v>26377</v>
@@ -70682,10 +70066,8 @@
       <c r="BR310" t="n">
         <v>0.7758333333333334</v>
       </c>
-      <c r="BS310" t="inlineStr">
-        <is>
-          <t>416,878,162,441</t>
-        </is>
+      <c r="BS310" t="n">
+        <v>416878162441</v>
       </c>
       <c r="BT310" t="n">
         <v>8906</v>
@@ -70914,10 +70296,8 @@
       <c r="BR311" t="n">
         <v>7.3825</v>
       </c>
-      <c r="BS311" t="inlineStr">
-        <is>
-          <t>1,488,067,258,325</t>
-        </is>
+      <c r="BS311" t="n">
+        <v>1488067258325</v>
       </c>
       <c r="BT311" t="n">
         <v>34097</v>
@@ -71114,10 +70494,8 @@
       <c r="BR312" t="n">
         <v>29.4425</v>
       </c>
-      <c r="BS312" t="inlineStr">
-        <is>
-          <t>4,422,276,622</t>
-        </is>
+      <c r="BS312" t="n">
+        <v>4422276622</v>
       </c>
       <c r="BT312" t="n">
         <v>9184</v>
@@ -71346,10 +70724,8 @@
       <c r="BR313" t="n">
         <v>11.81416666666667</v>
       </c>
-      <c r="BS313" t="inlineStr">
-        <is>
-          <t>563,109,663,291</t>
-        </is>
+      <c r="BS313" t="n">
+        <v>563109663291</v>
       </c>
       <c r="BT313" t="n">
         <v>63380</v>
@@ -71578,10 +70954,8 @@
       <c r="BR314" t="n">
         <v>14.01833333333333</v>
       </c>
-      <c r="BS314" t="inlineStr">
-        <is>
-          <t>699,579,638,638</t>
-        </is>
+      <c r="BS314" t="n">
+        <v>699579638638</v>
       </c>
       <c r="BT314" t="n">
         <v>93053</v>
@@ -71810,10 +71184,8 @@
       <c r="BR315" t="n">
         <v>6.465833333333333</v>
       </c>
-      <c r="BS315" t="inlineStr">
-        <is>
-          <t>370,818,747,397</t>
-        </is>
+      <c r="BS315" t="n">
+        <v>370818747397</v>
       </c>
       <c r="BT315" t="n">
         <v>6153</v>
@@ -72042,10 +71414,8 @@
       <c r="BR316" t="n">
         <v>1.9225</v>
       </c>
-      <c r="BS316" t="inlineStr">
-        <is>
-          <t>832,523,681,194</t>
-        </is>
+      <c r="BS316" t="n">
+        <v>832523681194</v>
       </c>
       <c r="BT316" t="n">
         <v>12237</v>
@@ -72274,10 +71644,8 @@
       <c r="BR317" t="n">
         <v>22</v>
       </c>
-      <c r="BS317" t="inlineStr">
-        <is>
-          <t>163,159,671,670</t>
-        </is>
+      <c r="BS317" t="n">
+        <v>163159671670</v>
       </c>
       <c r="BT317" t="n">
         <v>3788</v>
@@ -72506,10 +71874,8 @@
       <c r="BR318" t="n">
         <v>6.524166666666667</v>
       </c>
-      <c r="BS318" t="inlineStr">
-        <is>
-          <t>2,619,700,404,733</t>
-        </is>
+      <c r="BS318" t="n">
+        <v>2619700404733</v>
       </c>
       <c r="BT318" t="n">
         <v>44491</v>
@@ -72738,10 +72104,8 @@
       <c r="BR319" t="n">
         <v>13.53</v>
       </c>
-      <c r="BS319" t="inlineStr">
-        <is>
-          <t>15,517,926,000,000</t>
-        </is>
+      <c r="BS319" t="n">
+        <v>15517926000000</v>
       </c>
       <c r="BT319" t="n">
         <v>53452</v>
@@ -72942,10 +72306,8 @@
       <c r="BR320" t="n">
         <v>3.471666666666666</v>
       </c>
-      <c r="BS320" t="inlineStr">
-        <is>
-          <t>11,926,953,259</t>
-        </is>
+      <c r="BS320" t="n">
+        <v>11926953259</v>
       </c>
       <c r="BT320" t="n">
         <v>4359</v>
@@ -73174,10 +72536,8 @@
       <c r="BR321" t="n">
         <v>9.27</v>
       </c>
-      <c r="BS321" t="inlineStr">
-        <is>
-          <t>423,627,422,092</t>
-        </is>
+      <c r="BS321" t="n">
+        <v>423627422092</v>
       </c>
       <c r="BT321" t="n">
         <v>11273</v>
@@ -73378,10 +72738,8 @@
       <c r="BR322" t="n">
         <v>3.3675</v>
       </c>
-      <c r="BS322" t="inlineStr">
-        <is>
-          <t>9,260,284,938</t>
-        </is>
+      <c r="BS322" t="n">
+        <v>9260284938</v>
       </c>
       <c r="BT322" t="n">
         <v>3460</v>
@@ -73610,10 +72968,8 @@
       <c r="BR323" t="n">
         <v>11.05333333333333</v>
       </c>
-      <c r="BS323" t="inlineStr">
-        <is>
-          <t>1,144,260,547,873</t>
-        </is>
+      <c r="BS323" t="n">
+        <v>1144260547873</v>
       </c>
       <c r="BT323" t="n">
         <v>54887</v>
@@ -73842,10 +73198,8 @@
       <c r="BR324" t="n">
         <v>17.29583333333333</v>
       </c>
-      <c r="BS324" t="inlineStr">
-        <is>
-          <t>391,892,746,545</t>
-        </is>
+      <c r="BS324" t="n">
+        <v>391892746545</v>
       </c>
       <c r="BT324" t="n">
         <v>49181</v>
@@ -74040,10 +73394,8 @@
       <c r="BR325" t="n">
         <v>4.86</v>
       </c>
-      <c r="BS325" t="inlineStr">
-        <is>
-          <t>10,095,760,000</t>
-        </is>
+      <c r="BS325" t="n">
+        <v>10095760000</v>
       </c>
       <c r="BT325" t="n">
         <v>30239</v>
@@ -74272,10 +73624,8 @@
       <c r="BR326" t="n">
         <v>0.9908333333333333</v>
       </c>
-      <c r="BS326" t="inlineStr">
-        <is>
-          <t>25,713,271,277</t>
-        </is>
+      <c r="BS326" t="n">
+        <v>25713271277</v>
       </c>
       <c r="BT326" t="n">
         <v>22572</v>
@@ -74468,10 +73818,8 @@
       <c r="BR327" t="n">
         <v>0.635</v>
       </c>
-      <c r="BS327" t="inlineStr">
-        <is>
-          <t>4,461,650,000</t>
-        </is>
+      <c r="BS327" t="n">
+        <v>4461650000</v>
       </c>
       <c r="BT327" t="n">
         <v>17034</v>
@@ -74700,10 +74048,8 @@
       <c r="BR328" t="n">
         <v>18.34833333333333</v>
       </c>
-      <c r="BS328" t="inlineStr">
-        <is>
-          <t>483,548,031,197</t>
-        </is>
+      <c r="BS328" t="n">
+        <v>483548031197</v>
       </c>
       <c r="BT328" t="n">
         <v>47355</v>
@@ -74898,10 +74244,8 @@
       <c r="BR329" t="n">
         <v>5.123333333333333</v>
       </c>
-      <c r="BS329" t="inlineStr">
-        <is>
-          <t>1,397,113,450</t>
-        </is>
+      <c r="BS329" t="n">
+        <v>1397113450</v>
       </c>
       <c r="BT329" t="n">
         <v>4923</v>
@@ -75130,10 +74474,8 @@
       <c r="BR330" t="n">
         <v>6.060833333333334</v>
       </c>
-      <c r="BS330" t="inlineStr">
-        <is>
-          <t>2,208,871,646,203</t>
-        </is>
+      <c r="BS330" t="n">
+        <v>2208871646203</v>
       </c>
       <c r="BT330" t="n">
         <v>12161</v>
@@ -75362,10 +74704,8 @@
       <c r="BR331" t="n">
         <v>13.1875</v>
       </c>
-      <c r="BS331" t="inlineStr">
-        <is>
-          <t>50,610,058,210</t>
-        </is>
+      <c r="BS331" t="n">
+        <v>50610058210</v>
       </c>
       <c r="BT331" t="n">
         <v>7066</v>
@@ -75594,10 +74934,8 @@
       <c r="BR332" t="n">
         <v>11.05583333333333</v>
       </c>
-      <c r="BS332" t="inlineStr">
-        <is>
-          <t>1,613,464,422,811</t>
-        </is>
+      <c r="BS332" t="n">
+        <v>1613464422811</v>
       </c>
       <c r="BT332" t="n">
         <v>49974</v>
@@ -75824,10 +75162,8 @@
       <c r="BR333" t="n">
         <v>13.57333333333333</v>
       </c>
-      <c r="BS333" t="inlineStr">
-        <is>
-          <t>218,537,551,220</t>
-        </is>
+      <c r="BS333" t="n">
+        <v>218537551220</v>
       </c>
       <c r="BT333" t="n">
         <v>13874</v>
@@ -76056,10 +75392,8 @@
       <c r="BR334" t="n">
         <v>5.603333333333333</v>
       </c>
-      <c r="BS334" t="inlineStr">
-        <is>
-          <t>287,018,184,638</t>
-        </is>
+      <c r="BS334" t="n">
+        <v>287018184638</v>
       </c>
       <c r="BT334" t="n">
         <v>6836</v>
@@ -76260,10 +75594,8 @@
       <c r="BR335" t="n">
         <v>7.029166666666666</v>
       </c>
-      <c r="BS335" t="inlineStr">
-        <is>
-          <t>37,268,635,287</t>
-        </is>
+      <c r="BS335" t="n">
+        <v>37268635287</v>
       </c>
       <c r="BT335" t="n">
         <v>8906</v>
@@ -76464,10 +75796,8 @@
       <c r="BR336" t="n">
         <v>20.16416666666667</v>
       </c>
-      <c r="BS336" t="inlineStr">
-        <is>
-          <t>59,829,574,391</t>
-        </is>
+      <c r="BS336" t="n">
+        <v>59829574391</v>
       </c>
       <c r="BT336" t="n">
         <v>14232</v>
@@ -76694,10 +76024,8 @@
       <c r="BR337" t="n">
         <v>4.906666666666667</v>
       </c>
-      <c r="BS337" t="inlineStr">
-        <is>
-          <t>25,562,251,656</t>
-        </is>
+      <c r="BS337" t="n">
+        <v>25562251656</v>
       </c>
       <c r="BT337" t="n">
         <v>32477</v>
@@ -76926,10 +76254,8 @@
       <c r="BR338" t="n">
         <v>10.835</v>
       </c>
-      <c r="BS338" t="inlineStr">
-        <is>
-          <t>321,995,350,347</t>
-        </is>
+      <c r="BS338" t="n">
+        <v>321995350347</v>
       </c>
       <c r="BT338" t="n">
         <v>61711</v>
@@ -77158,10 +76484,8 @@
       <c r="BR339" t="n">
         <v>6.790833333333333</v>
       </c>
-      <c r="BS339" t="inlineStr">
-        <is>
-          <t>69,555,367,000</t>
-        </is>
+      <c r="BS339" t="n">
+        <v>69555367000</v>
       </c>
       <c r="BT339" t="n">
         <v>5206</v>
@@ -77362,10 +76686,8 @@
       <c r="BR340" t="n">
         <v>8.16</v>
       </c>
-      <c r="BS340" t="inlineStr">
-        <is>
-          <t>18,447,922,400</t>
-        </is>
+      <c r="BS340" t="n">
+        <v>18447922400</v>
       </c>
       <c r="BT340" t="n">
         <v>3318</v>
@@ -77594,10 +76916,8 @@
       <c r="BR341" t="n">
         <v>19.08916666666667</v>
       </c>
-      <c r="BS341" t="inlineStr">
-        <is>
-          <t>19,490,936,349</t>
-        </is>
+      <c r="BS341" t="n">
+        <v>19490936349</v>
       </c>
       <c r="BT341" t="n">
         <v>15540</v>
@@ -77826,10 +77146,8 @@
       <c r="BR342" t="n">
         <v>17.93416666666667</v>
       </c>
-      <c r="BS342" t="inlineStr">
-        <is>
-          <t>247,799,815,768</t>
-        </is>
+      <c r="BS342" t="n">
+        <v>247799815768</v>
       </c>
       <c r="BT342" t="n">
         <v>48939</v>
@@ -78058,10 +77376,8 @@
       <c r="BR343" t="n">
         <v>17.5975</v>
       </c>
-      <c r="BS343" t="inlineStr">
-        <is>
-          <t>2,642,609,548,930</t>
-        </is>
+      <c r="BS343" t="n">
+        <v>2642609548930</v>
       </c>
       <c r="BT343" t="n">
         <v>44747</v>
@@ -78262,10 +77578,8 @@
       <c r="BR344" t="n">
         <v>2.860833333333333</v>
       </c>
-      <c r="BS344" t="inlineStr">
-        <is>
-          <t>11,638,536,834</t>
-        </is>
+      <c r="BS344" t="n">
+        <v>11638536834</v>
       </c>
       <c r="BT344" t="n">
         <v>2775</v>
@@ -78494,10 +77808,8 @@
       <c r="BR345" t="n">
         <v>12.68083333333333</v>
       </c>
-      <c r="BS345" t="inlineStr">
-        <is>
-          <t>3,417,094,562,649</t>
-        </is>
+      <c r="BS345" t="n">
+        <v>3417094562649</v>
       </c>
       <c r="BT345" t="n">
         <v>43614</v>
@@ -78726,10 +78038,8 @@
       <c r="BR346" t="n">
         <v>3.325</v>
       </c>
-      <c r="BS346" t="inlineStr">
-        <is>
-          <t>299,361,576,558</t>
-        </is>
+      <c r="BS346" t="n">
+        <v>299361576558</v>
       </c>
       <c r="BT346" t="n">
         <v>27886</v>
@@ -78958,10 +78268,8 @@
       <c r="BR347" t="n">
         <v>2.9525</v>
       </c>
-      <c r="BS347" t="inlineStr">
-        <is>
-          <t>41,338,595,381</t>
-        </is>
+      <c r="BS347" t="n">
+        <v>41338595381</v>
       </c>
       <c r="BT347" t="n">
         <v>3260</v>
@@ -79158,10 +78466,8 @@
       <c r="BR348" t="n">
         <v>33.58916666666666</v>
       </c>
-      <c r="BS348" t="inlineStr">
-        <is>
-          <t>2,273,225,042</t>
-        </is>
+      <c r="BS348" t="n">
+        <v>2273225042</v>
       </c>
       <c r="BT348" t="n">
         <v>3384</v>
@@ -79390,10 +78696,8 @@
       <c r="BR349" t="n">
         <v>26.77583333333333</v>
       </c>
-      <c r="BS349" t="inlineStr">
-        <is>
-          <t>130,922,638,689</t>
-        </is>
+      <c r="BS349" t="n">
+        <v>130922638689</v>
       </c>
       <c r="BT349" t="n">
         <v>13761</v>
@@ -79592,10 +78896,8 @@
       <c r="BR350" t="n">
         <v>15.35583333333333</v>
       </c>
-      <c r="BS350" t="inlineStr">
-        <is>
-          <t>13,310,567,803</t>
-        </is>
+      <c r="BS350" t="n">
+        <v>13310567803</v>
       </c>
       <c r="BT350" t="n">
         <v>45179</v>
@@ -79824,10 +79126,8 @@
       <c r="BR351" t="n">
         <v>10.025</v>
       </c>
-      <c r="BS351" t="inlineStr">
-        <is>
-          <t>221,951,354,762</t>
-        </is>
+      <c r="BS351" t="n">
+        <v>221951354762</v>
       </c>
       <c r="BT351" t="n">
         <v>52042</v>
@@ -80056,10 +79356,8 @@
       <c r="BR352" t="n">
         <v>8.289166666666667</v>
       </c>
-      <c r="BS352" t="inlineStr">
-        <is>
-          <t>233,609,522,091</t>
-        </is>
+      <c r="BS352" t="n">
+        <v>233609522091</v>
       </c>
       <c r="BT352" t="n">
         <v>34104</v>
@@ -80288,10 +79586,8 @@
       <c r="BR353" t="n">
         <v>6.730833333333333</v>
       </c>
-      <c r="BS353" t="inlineStr">
-        <is>
-          <t>2,125,058,244,243</t>
-        </is>
+      <c r="BS353" t="n">
+        <v>2125058244243</v>
       </c>
       <c r="BT353" t="n">
         <v>36869</v>
@@ -80492,10 +79788,8 @@
       <c r="BR354" t="n">
         <v>0.09666666666666666</v>
       </c>
-      <c r="BS354" t="inlineStr">
-        <is>
-          <t>13,191,645,686</t>
-        </is>
+      <c r="BS354" t="n">
+        <v>13191645686</v>
       </c>
       <c r="BT354" t="n">
         <v>5100</v>
@@ -80724,10 +80018,8 @@
       <c r="BR355" t="n">
         <v>21.29</v>
       </c>
-      <c r="BS355" t="inlineStr">
-        <is>
-          <t>5,700,098,114,744</t>
-        </is>
+      <c r="BS355" t="n">
+        <v>5700098114744</v>
       </c>
       <c r="BT355" t="n">
         <v>47059</v>
@@ -80956,10 +80248,8 @@
       <c r="BR356" t="n">
         <v>26.73416666666667</v>
       </c>
-      <c r="BS356" t="inlineStr">
-        <is>
-          <t>148,047,348,241</t>
-        </is>
+      <c r="BS356" t="n">
+        <v>148047348241</v>
       </c>
       <c r="BT356" t="n">
         <v>10062</v>
@@ -81188,10 +80478,8 @@
       <c r="BR357" t="n">
         <v>0.8366666666666668</v>
       </c>
-      <c r="BS357" t="inlineStr">
-        <is>
-          <t>115,419,050,942</t>
-        </is>
+      <c r="BS357" t="n">
+        <v>115419050942</v>
       </c>
       <c r="BT357" t="n">
         <v>35171</v>
@@ -81420,10 +80708,8 @@
       <c r="BR358" t="n">
         <v>21.61166666666667</v>
       </c>
-      <c r="BS358" t="inlineStr">
-        <is>
-          <t>23,757,368,290</t>
-        </is>
+      <c r="BS358" t="n">
+        <v>23757368290</v>
       </c>
       <c r="BT358" t="n">
         <v>11951</v>
@@ -81652,10 +80938,8 @@
       <c r="BR359" t="n">
         <v>32.93666666666667</v>
       </c>
-      <c r="BS359" t="inlineStr">
-        <is>
-          <t>37,120,517,694</t>
-        </is>
+      <c r="BS359" t="n">
+        <v>37120517694</v>
       </c>
       <c r="BT359" t="n">
         <v>12584</v>
@@ -81854,10 +81138,8 @@
       <c r="BR360" t="n">
         <v>11.76333333333333</v>
       </c>
-      <c r="BS360" t="inlineStr">
-        <is>
-          <t>53,212,476,812</t>
-        </is>
+      <c r="BS360" t="n">
+        <v>53212476812</v>
       </c>
       <c r="BT360" t="n">
         <v>111328</v>
@@ -82084,10 +81366,8 @@
       <c r="BR361" t="n">
         <v>6.8425</v>
       </c>
-      <c r="BS361" t="inlineStr">
-        <is>
-          <t>8,741,059,603</t>
-        </is>
+      <c r="BS361" t="n">
+        <v>8741059603</v>
       </c>
       <c r="BT361" t="n">
         <v>22132</v>
@@ -82316,10 +81596,8 @@
       <c r="BR362" t="n">
         <v>9.319166666666666</v>
       </c>
-      <c r="BS362" t="inlineStr">
-        <is>
-          <t>10,003,670,690</t>
-        </is>
+      <c r="BS362" t="n">
+        <v>10003670690</v>
       </c>
       <c r="BT362" t="n">
         <v>8587</v>
@@ -82548,10 +81826,8 @@
       <c r="BR363" t="n">
         <v>5.084166666666667</v>
       </c>
-      <c r="BS363" t="inlineStr">
-        <is>
-          <t>1,057,801,282,051</t>
-        </is>
+      <c r="BS363" t="n">
+        <v>1057801282051</v>
       </c>
       <c r="BT363" t="n">
         <v>9991</v>
@@ -82780,10 +82056,8 @@
       <c r="BR364" t="n">
         <v>9.124166666666667</v>
       </c>
-      <c r="BS364" t="inlineStr">
-        <is>
-          <t>836,389,937,229</t>
-        </is>
+      <c r="BS364" t="n">
+        <v>836389937229</v>
       </c>
       <c r="BT364" t="n">
         <v>53302</v>
@@ -83012,10 +82286,8 @@
       <c r="BR365" t="n">
         <v>12.71833333333333</v>
       </c>
-      <c r="BS365" t="inlineStr">
-        <is>
-          <t>146,583,831,538</t>
-        </is>
+      <c r="BS365" t="n">
+        <v>146583831538</v>
       </c>
       <c r="BT365" t="n">
         <v>36145</v>
@@ -83244,10 +82516,8 @@
       <c r="BR366" t="n">
         <v>7.395</v>
       </c>
-      <c r="BS366" t="inlineStr">
-        <is>
-          <t>8,758,622,329</t>
-        </is>
+      <c r="BS366" t="n">
+        <v>8758622329</v>
       </c>
       <c r="BT366" t="n">
         <v>1715</v>
@@ -83476,10 +82746,8 @@
       <c r="BR367" t="n">
         <v>11.36916666666667</v>
       </c>
-      <c r="BS367" t="inlineStr">
-        <is>
-          <t>429,130,952,709</t>
-        </is>
+      <c r="BS367" t="n">
+        <v>429130952709</v>
       </c>
       <c r="BT367" t="n">
         <v>93638</v>
@@ -83708,10 +82976,8 @@
       <c r="BR368" t="n">
         <v>0.3166666666666667</v>
       </c>
-      <c r="BS368" t="inlineStr">
-        <is>
-          <t>58,642,392,718</t>
-        </is>
+      <c r="BS368" t="n">
+        <v>58642392718</v>
       </c>
       <c r="BT368" t="n">
         <v>21337</v>
@@ -83938,10 +83204,8 @@
       <c r="BR369" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="BS369" t="inlineStr">
-        <is>
-          <t>29,440,287,600</t>
-        </is>
+      <c r="BS369" t="n">
+        <v>29440287600</v>
       </c>
       <c r="BT369" t="n">
         <v>8991</v>
@@ -84170,10 +83434,8 @@
       <c r="BR370" t="n">
         <v>4.546666666666667</v>
       </c>
-      <c r="BS370" t="inlineStr">
-        <is>
-          <t>20,030,528,043</t>
-        </is>
+      <c r="BS370" t="n">
+        <v>20030528043</v>
       </c>
       <c r="BT370" t="n">
         <v>3619</v>
@@ -84402,10 +83664,8 @@
       <c r="BR371" t="n">
         <v>3.08</v>
       </c>
-      <c r="BS371" t="inlineStr">
-        <is>
-          <t>199,590,775,189</t>
-        </is>
+      <c r="BS371" t="n">
+        <v>199590775189</v>
       </c>
       <c r="BT371" t="n">
         <v>2412</v>
@@ -84634,10 +83894,8 @@
       <c r="BR372" t="n">
         <v>15.88666666666666</v>
       </c>
-      <c r="BS372" t="inlineStr">
-        <is>
-          <t>479,321,460,551</t>
-        </is>
+      <c r="BS372" t="n">
+        <v>479321460551</v>
       </c>
       <c r="BT372" t="n">
         <v>13304</v>
@@ -84866,10 +84124,8 @@
       <c r="BR373" t="n">
         <v>12.40333333333333</v>
       </c>
-      <c r="BS373" t="inlineStr">
-        <is>
-          <t>238,303,443,425</t>
-        </is>
+      <c r="BS373" t="n">
+        <v>238303443425</v>
       </c>
       <c r="BT373" t="n">
         <v>23673</v>
@@ -85098,10 +84354,8 @@
       <c r="BR374" t="n">
         <v>1.069166666666667</v>
       </c>
-      <c r="BS374" t="inlineStr">
-        <is>
-          <t>125,122,306,346</t>
-        </is>
+      <c r="BS374" t="n">
+        <v>125122306346</v>
       </c>
       <c r="BT374" t="n">
         <v>74055</v>
@@ -85330,10 +84584,8 @@
       <c r="BR375" t="n">
         <v>12.50333333333333</v>
       </c>
-      <c r="BS375" t="inlineStr">
-        <is>
-          <t>166,658,327,827</t>
-        </is>
+      <c r="BS375" t="n">
+        <v>166658327827</v>
       </c>
       <c r="BT375" t="n">
         <v>8190</v>
@@ -85562,10 +84814,8 @@
       <c r="BR376" t="n">
         <v>19.54</v>
       </c>
-      <c r="BS376" t="inlineStr">
-        <is>
-          <t>39,460,357,731</t>
-        </is>
+      <c r="BS376" t="n">
+        <v>39460357731</v>
       </c>
       <c r="BT376" t="n">
         <v>5682</v>
@@ -85794,10 +85044,8 @@
       <c r="BR377" t="n">
         <v>10.76916666666667</v>
       </c>
-      <c r="BS377" t="inlineStr">
-        <is>
-          <t>236,421,782,178</t>
-        </is>
+      <c r="BS377" t="n">
+        <v>236421782178</v>
       </c>
       <c r="BT377" t="n">
         <v>66099</v>
@@ -86026,10 +85274,8 @@
       <c r="BR378" t="n">
         <v>22.1325</v>
       </c>
-      <c r="BS378" t="inlineStr">
-        <is>
-          <t>48,013,606,745</t>
-        </is>
+      <c r="BS378" t="n">
+        <v>48013606745</v>
       </c>
       <c r="BT378" t="n">
         <v>24689</v>
@@ -86258,10 +85504,8 @@
       <c r="BR379" t="n">
         <v>1.090833333333333</v>
       </c>
-      <c r="BS379" t="inlineStr">
-        <is>
-          <t>375,298,134,440</t>
-        </is>
+      <c r="BS379" t="n">
+        <v>375298134440</v>
       </c>
       <c r="BT379" t="n">
         <v>8128</v>
@@ -86490,10 +85734,8 @@
       <c r="BR380" t="n">
         <v>7.286666666666666</v>
       </c>
-      <c r="BS380" t="inlineStr">
-        <is>
-          <t>1,431,616,749,640</t>
-        </is>
+      <c r="BS380" t="n">
+        <v>1431616749640</v>
       </c>
       <c r="BT380" t="n">
         <v>32839</v>
@@ -86690,10 +85932,8 @@
       <c r="BR381" t="n">
         <v>35.44166666666667</v>
       </c>
-      <c r="BS381" t="inlineStr">
-        <is>
-          <t>4,368,398,048</t>
-        </is>
+      <c r="BS381" t="n">
+        <v>4368398048</v>
       </c>
       <c r="BT381" t="n">
         <v>9176</v>
@@ -86922,10 +86162,8 @@
       <c r="BR382" t="n">
         <v>12.21166666666667</v>
       </c>
-      <c r="BS382" t="inlineStr">
-        <is>
-          <t>488,377,689,565</t>
-        </is>
+      <c r="BS382" t="n">
+        <v>488377689565</v>
       </c>
       <c r="BT382" t="n">
         <v>55352</v>
@@ -87154,10 +86392,8 @@
       <c r="BR383" t="n">
         <v>13.37666666666667</v>
       </c>
-      <c r="BS383" t="inlineStr">
-        <is>
-          <t>583,782,977,866</t>
-        </is>
+      <c r="BS383" t="n">
+        <v>583782977866</v>
       </c>
       <c r="BT383" t="n">
         <v>78474</v>
@@ -87386,10 +86622,8 @@
       <c r="BR384" t="n">
         <v>6.708333333333333</v>
       </c>
-      <c r="BS384" t="inlineStr">
-        <is>
-          <t>341,105,009,515</t>
-        </is>
+      <c r="BS384" t="n">
+        <v>341105009515</v>
       </c>
       <c r="BT384" t="n">
         <v>5707</v>
@@ -87618,10 +86852,8 @@
       <c r="BR385" t="n">
         <v>2.640833333333334</v>
       </c>
-      <c r="BS385" t="inlineStr">
-        <is>
-          <t>771,901,768,698</t>
-        </is>
+      <c r="BS385" t="n">
+        <v>771901768698</v>
       </c>
       <c r="BT385" t="n">
         <v>11525</v>
@@ -87850,10 +87082,8 @@
       <c r="BR386" t="n">
         <v>21.9225</v>
       </c>
-      <c r="BS386" t="inlineStr">
-        <is>
-          <t>136,013,155,905</t>
-        </is>
+      <c r="BS386" t="n">
+        <v>136013155905</v>
       </c>
       <c r="BT386" t="n">
         <v>3141</v>
@@ -88082,10 +87312,8 @@
       <c r="BR387" t="n">
         <v>6.450833333333333</v>
       </c>
-      <c r="BS387" t="inlineStr">
-        <is>
-          <t>2,441,173,394,730</t>
-        </is>
+      <c r="BS387" t="n">
+        <v>2441173394730</v>
       </c>
       <c r="BT387" t="n">
         <v>41798</v>
@@ -88314,10 +87542,8 @@
       <c r="BR388" t="n">
         <v>13.24083333333333</v>
       </c>
-      <c r="BS388" t="inlineStr">
-        <is>
-          <t>14,964,372,000,000</t>
-        </is>
+      <c r="BS388" t="n">
+        <v>14964372000000</v>
       </c>
       <c r="BT388" t="n">
         <v>51989</v>
@@ -88546,10 +87772,8 @@
       <c r="BR389" t="n">
         <v>21.4525</v>
       </c>
-      <c r="BS389" t="inlineStr">
-        <is>
-          <t>40,284,481,652</t>
-        </is>
+      <c r="BS389" t="n">
+        <v>40284481652</v>
       </c>
       <c r="BT389" t="n">
         <v>12882</v>
